--- a/prompt_test/data/cnews_20250411_summary.xlsx
+++ b/prompt_test/data/cnews_20250411_summary.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>삼성증권 강정구 수석이 은퇴 의사를 밝히며 퇴사를 앞두고 있다.</t>
+          <t>강정구 삼성증권 수석이 은퇴를 앞두고 회사를 떠난다는 소식이 전해졌다.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>삼성생명이 기관의 매도 상위 10개 종목에 포함되었다.</t>
+          <t>삼성전자와 관련된 주식 동향 및 외국인 매도 흐름에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -701,7 +701,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>괴산농협이 생명보험 분야에서 3년 연속 대상을 수상하며 지역사회와 상생형 보험사업을 추진하고 있다.</t>
+          <t>충북 괴산농협이 생명보험 분야에서 3년 연속 대상을 수상하며 우수한 성과를 거두었다.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>우리금융의 동양·ABL생명보험 인수 관련 논의가 지연되고 있다는 내용의 기사입니다.</t>
+          <t>우리금융의 동양·ABL생명보험 인수 관련 금융당국의 승인 논의가 지연되고 있다.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>교보생명이 저출산 극복과 가족친화적 기업문화를 위한 다양한 제도를 운영 중이다.</t>
+          <t>교보생명이 가족친화적 기업문화를 통해 저출생 위기 극복에 동참하고 있다.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>한화손해보험이 캐롯손해보험을 흡수합병할 경우 자동차보험 시장에서의 성장이 기대된다.</t>
+          <t>한화손해보험이 자회사 캐롯손해보험의 흡수합병을 검토하며 자동차보험 시장에서의 입지를 강화하고 있다.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>MG손해보험의 부실 계약 문제와 감액 이전 논의에 대한 기사입니다.</t>
+          <t>MG손해보험의 부실 계약 문제와 감액 이전 논의가 보험업계에서 이루어지고 있다.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>농협 대전지역본부가 NH농협생명 연도대상 시상식에서 수상했다고 밝혔다.</t>
+          <t>NH농협생명 연도대상 시상식에서 대전농협이 여러 부문에서 수상했다.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>미래에셋증권의 IMA 업무 준비와 관련된 금융업계 이슈를 다루고 있습니다.</t>
+          <t>미래에셋증권의 IMA 업무 준비와 관련된 기사로 삼성생명과는 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>금융위가 우리금융의 동양·ABL생명보험 인수 관련 논의를 재차 진행했으나 결론을 내지 못했다.</t>
+          <t>우리금융의 동양·ABL생명보험 인수 관련 금융위 논의가 결론 없이 재논의 예정.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1233,7 +1233,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>NH농협생명이 신상품 교육과 아침밥 먹기 캠페인을 통해 쌀 소비 촉진에 나섰다.</t>
+          <t>NH농협생명이 신상품 출시와 쌀 소비 촉진 캠페인에 참여했다.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>외국계 보험사들이 높은 자산운용 수익률을 기록하며 생존력 강화에 기여하고 있다.</t>
+          <t>외국계 보험사들의 자산운용 수익률이 높은 이유와 업계 동향을 분석한 기사입니다.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DB손해보험이 산불 피해 주민을 위해 구호물품과 금융지원을 제공했다.</t>
+          <t>DB손해보험이 산불 피해 주민을 위한 긴급 구호물품을 전달했다.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DB손해보험이 산불 피해 주민들을 위해 구호물품을 전달했다.</t>
+          <t>DB손해보험이 산불 피해 주민들을 위한 구호물품을 전달했다.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>롯데손해보험이 나만의닥터와 제휴해 이용자들이 보험설계사로 활동하며 추가 소득을 얻을 기회를 제공한다.</t>
+          <t>롯데손해보험이 나만의닥터와 제휴해 보험설계사로 활동할 수 있는 기회를 제공한다.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1533,16 +1533,16 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>발달 지연 실손보험 갈등으로 보험사와 의료기관 간의 제도적 문제점이 부각되고 있다.</t>
+          <t>발달 지연 아동의 실손보험 청구 관련 문제와 시스템 개선 필요성을 다룬 기사.</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1585,16 +1585,16 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>손해보험사들이 무·저해지 보험료를 인상하여 보험 가입자들의 부담이 증가하고 있다.</t>
+          <t>무·저해지 보험의 보험료가 인상되면서 손해보험사들의 부담이 커졌다.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="L20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>외국계 보험사들이 높은 자산운용 수익률을 기록한 이유를 분석한 기사입니다.</t>
+          <t>외국계 보험사들의 자산운용 수익률이 높은 이유를 설명한 기사입니다.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>롯데손해보험이 '나만의닥터'와 제휴해 N잡 설계사 지원 플랫폼 '원더'를 통해 부업 기회를 제공한다.</t>
+          <t>롯데손해보험의 영업지원 플랫폼 '원더'와 비대면 진료 플랫폼 '나만의닥터' 업무제휴 소식.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DB손해보험이 산불 피해 주민들을 위한 긴급 구호물품을 지원했다.</t>
+          <t>DB손해보험이 산불 피해 주민을 위한 구호물품을 전달했다.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DB손해보험이 산불 피해 이재민을 위해 긴급 구호물품을 전달했다.</t>
+          <t>DB손해보험은 영남지역 산불 피해 이재민을 위한 긴급 구호물품을 전달했다.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DB손보와 십일리터의 협업으로 펫보험 시장 확대 및 AI 기반 서비스 강화.</t>
+          <t>DB손해보험과 십일리터의 협업으로 펫보험 서비스가 강화되고 있다.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1937,7 +1937,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>실손보험의 남용과 손해율 악화로 인한 문제 해결을 위한 개혁 방안이 발표되었다.</t>
+          <t>실손보험의 남용과 손해율 악화로 인한 문제를 해결하기 위한 개혁 방안이 발표되었다.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1997,16 +1997,16 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>무해지 보험의 해지율 가이드라인 적용으로 보험료 인상 및 소비자 부담 증가 전망.</t>
+          <t>무·저해지 보험의 보험료 인상으로 소비자 부담이 증가할 전망이다.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="L27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>삼성화재가 교통안전 퀴즈 이벤트 '도로 위의 포청천' 시즌2를 운영한다.</t>
+          <t>삼성화재가 고객 소통과 안전한 교통문화 확산을 위해 퀴즈 이벤트를 진행한다.</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>삼성디스플레이가 성과급 제도 개선을 위해 노사공동 TF를 조직했다.</t>
+          <t>삼성디스플레이가 성과급 제도 개선을 위해 노사 공동 TF를 구성했다.</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>미세공격이 조직 내 부정적 영향을 미칠 수 있음을 지적한 책 소개 기사입니다.</t>
+          <t>삼성화재 부사장을 지낸 저자가 쓴 책 소개 기사로, 회사와 직접적 연관은 없음.</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="L30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>책 '미세공격 주의보'는 조직 내 미세공격 문제를 다룬다.</t>
+          <t>책 소개 기사로 삼성화재와 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L31" t="b">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>국내 독립 보험대리점 브랜드평판 순위에서 인카금융서비스가 1위를 차지했다.</t>
+          <t>국내 독립 보험대리점 브랜드평판 순위 발표, 인카금융서비스가 1위.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>한화생명이 흑자에도 불구하고 무배당을 유지하고 있다는 내용이 포함된 기사입니다.</t>
+          <t>주요 대기업들의 배당 감소와 관련된 업계 현황을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="L33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>대전 한화생명 볼파크에서 시구·시타 아르바이트 모집 소식.</t>
+          <t>한화생명 볼파크에서 시구·시타 아르바이트를 모집하는 기사입니다.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L34" t="b">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>대전 중구청의 행정 혁신과 주민 참여 확대에 관한 기사입니다.</t>
+          <t>대전 중구청의 행정 혁신과 주민 참여 확대에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>한화그룹과 신세계그룹의 동일인 변경 가능성에 대한 공정거래위원회의 검토가 주목받고 있다.</t>
+          <t>한화그룹과 신세계그룹의 동일인 변경 가능성에 대한 공정위의 판단이 주목된다.</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>한국신용데이터의 매출 성장과 혁신 서비스 출시 관련 내용입니다.</t>
+          <t>한국신용데이터의 매출 성장과 서비스 혁신에 대한 기사로, 삼성생명과 직접적인 관련은 없습니다.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>교보생명 풋옵션 분쟁이 장기화되며 법적 다툼이 예상된다.</t>
+          <t>교보생명과 관련된 풋옵션 분쟁이 장기화될 조짐을 보이고 있다.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>교보생명과 관련된 PEF 풋옵션 분쟁으로 법률 비용이 크게 증가하고 있다는 내용의 기사입니다.</t>
+          <t>교보생명 신창재 회장과 PEF 간의 풋옵션 분쟁으로 막대한 법률 비용이 소요되고 있다.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>금융지주사의 핀테크 출자 제한 완화로 금융과 핀테크 간 협업 강화 기대.</t>
+          <t>금융지주사의 핀테크 출자 제한을 완화하는 법령 개정안이 입법 예고될 예정이다.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>어피니티에 대한 세무조사로 사모펀드 업계의 긴장감이 높아지고 있다.</t>
+          <t>글로벌 사모펀드 어피니티에 대한 국세청의 세무조사로 업계 긴장도가 높아지고 있다.</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2889,7 +2889,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>한국MDRT협회 행사에서 교보생명 이정현 씨가 퍼스트타이머로 소감을 공유했다.</t>
+          <t>MDRT 관련 행사 및 회원 증가에 대한 내용으로 삼성생명과 직접적인 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="L42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>하나은행의 영업 전략과 리딩뱅크 탈환 목표에 관한 내용입니다.</t>
+          <t>하나은행의 리딩뱅크 탈환 전략과 영업력 강화 계획에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>SK하이닉스가 삼성전자를 제치고 글로벌 D램 시장 점유율 1위를 기록했다.</t>
+          <t>SK하이닉스가 삼성전자를 제치고 D램 시장 점유율 1위를 기록했다.</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>영남이공대가 대구시 자동차전문정비사업조합으로부터 장학금을 기탁받았다.</t>
+          <t>영남이공대가 대구시자동차전문정비사업조합으로부터 장학금을 기탁받았다.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>이재용 회장이 외부 인재 영입을 강조하며 삼성전자의 조직문화 혁신 필요성이 언급되었다.</t>
+          <t>이재용 회장의 외부 인재 영입 전략과 삼성전자의 조직문화 혁신 필요성에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="L46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>이재용 삼성전자 회장이 일본 등 해외 시장에서 사업 확대 기회를 모색하고 있다.</t>
+          <t>이재용 삼성전자 회장의 해외 출장 및 글로벌 경영 행보에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="L47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3241,7 +3241,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>이재용 삼성전자 회장이 중국발전고위급포럼에 참석해 시진핑 주석과 회동하며 중국과의 관계를 강화했다.</t>
+          <t>이재용 삼성전자 회장이 중국발전고위급포럼에 참석해 시진핑 주석과 회동했다.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="L48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>철원플라즈마산업기술연구원과 강원대가 지역산업 인재양성을 위한 협약을 체결했다.</t>
+          <t>철원플라즈마산업기술연구원과 강원대가 지역산업 발전을 위한 협약을 체결했다.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>이재용 삼성전자 회장이 포브스 억만장자 명단에서 369위를 기록했다.</t>
+          <t>이 기사는 억만장자 명단과 관련된 내용으로, 삼성생명과 직접적인 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="L50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3413,12 +3413,12 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>윤석열 대통령과 김건희 여사의 국정 운영에 대한 비판적 논평을 담고 있는 기사입니다.</t>
+          <t>윤석열 전 대통령과 김건희 여사에 대한 비판과 정치적 상황을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L51" t="b">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>크래프톤과 엔비디아가 AI 및 로보틱스 분야 협력 가능성을 논의했다.</t>
+          <t>크래프톤과 엔비디아가 AI 및 로보틱스 분야 협력을 논의했다.</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>이재용 삼성전자 회장이 세계 자산가 순위에서 3위를 기록했습니다.</t>
+          <t>이재용 삼성전자 회장이 세계 자산가 순위에서 국내 3위에 올랐다는 내용이 포함된 기사입니다.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="L53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>삼성전자는 반도체 매출에서 엔비디아에 이어 2위를 유지하며 성장세를 보였다.</t>
+          <t>엔비디아가 삼성전자를 제치고 반도체 매출 1위에 올랐다는 소식.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="L54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>삼성전자 DX부문 노태문 사장이 임직원들에게 유연하고 민첩한 실행을 강조했다.</t>
+          <t>삼성전자 DX부문장 직무대행 노태문 사장이 임직원들에게 변화와 민첩성을 강조했다.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>삼성전자가 반도체 R&amp;D직 특별 연장 근로 허가를 받았다.</t>
+          <t>삼성전자가 반도체 연구개발직 특별 연장 근로 기간 확대의 첫 적용 대상이 되었다.</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>기사에서는 삼성전자와 관련된 외국인 투자자들의 매도세와 관세 우려에 대해 다루고 있습니다.</t>
+          <t>삼성전자 주가와 관세 이슈 관련 기사로, 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>삼성전자가 AI 로봇 '볼리'에 구글 제미나이를 탑재해 성능을 강화하고 여름 출시를 예고했다.</t>
+          <t>삼성전자가 AI 기반 가정용 로봇 '볼리'를 구글 제미나이 탑재로 성능을 향상시켜 출시할 예정이다.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>삼성전자 DX부문장 직무대행 노태문, 조직 문화 개선과 미래 경쟁력 확보 강조</t>
+          <t>노태문 삼성전자 DX부문장 직무대행이 조직 문화를 효율적으로 개선할 것을 당부했다.</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>삼성전자가 HBM 시장에서 경쟁력 강화를 위해 인력 전환 및 기술 개발에 집중하고 있다.</t>
+          <t>삼성전자가 HBM 기술 격차를 좁히기 위해 인력 전환 배치 및 연구개발을 강화하고 있다.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>산업통상자원부가 삼성전자 출신 서영진 전 상무를 국가표준원 기술규제대응국장으로 임명했다.</t>
+          <t>산업통상자원부가 서영진 전 삼성전자 상무를 국가표준원 기술규제대응국장으로 임명했다.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4073,16 +4073,16 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>삼성전자는 미·중 관세전쟁 우려로 주가가 하락하며 반도체 업종의 변동성이 지속되고 있다.</t>
+          <t>삼성전자와 SK하이닉스의 주가가 관세 전쟁 우려로 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>미중 무역전쟁 우려로 코스피와 주요 업종이 하락 중이며 삼성전자도 2% 하락했다.</t>
+          <t>미중 무역전쟁 우려로 인해 코스피와 주요 업종이 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>삼성전자와 구글의 협력 확대에 대한 기사로, 삼성생명과는 직접적인 관련이 없습니다.</t>
+          <t>삼성전자와 구글의 협력 강화에 대한 기사로, 삼성생명과 직접적인 연관은 없습니다.</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>SK하이닉스가 삼성전자를 제치고 D램 시장에서 1위를 차지하며 영업이익 전망치도 높게 평가받고 있다.</t>
+          <t>SK하이닉스의 1분기 실적이 삼성전자를 넘어설 가능성이 제기되고 있다.</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4313,16 +4313,16 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>삼성전자 주가가 미국 반도체주 급락 영향으로 하락세를 보이고 있다.</t>
+          <t>삼성전자 주식 관련 기사로, 삼성생명과 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -4373,16 +4373,16 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>삼성전자는 관세 불안과 차익실현 매물로 2.13% 하락했다.</t>
+          <t>삼성전자 주가 하락 관련 기사로, 삼성생명과 직접적 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>삼성전자 주가가 관세 부과 우려로 하락했으나 영향은 제한적일 것으로 분석됨.</t>
+          <t>삼성전자와 SK하이닉스의 주가가 미국 반도체 관세 우려로 하락했다.</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="L68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>미중 무역갈등으로 삼성전자 주가가 하락세를 보이고 있습니다.</t>
+          <t>미중 무역갈등으로 삼성전자와 SK하이닉스의 주가가 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>인도의 전자폐기물 정책으로 삼성전자 등 글로벌 가전사들이 재활용 비용 증가로 수익성 악화를 우려하고 있다.</t>
+          <t>삼성전자와 LG전자가 인도 전자폐기물 정책에 따른 재활용 비용 증가로 수익성 악화를 우려하고 있다.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4605,7 +4605,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>삼성전자 고성찬 디자이너가 K-디자인 어워드 2025 심사위원으로 위촉되었다.</t>
+          <t>삼성전자 디자이너가 K-디자인 어워드 심사위원으로 위촉되었다는 내용의 기사입니다.</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4674,7 +4674,7 @@
         </is>
       </c>
       <c r="L72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>삼성전자와 LG전자 주가가 관세 불확실성에 영향을 받고 있다.</t>
+          <t>삼성전자와 LG전자의 주가 변동이 미국 관세 정책에 영향을 받고 있다는 내용의 기사입니다.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4777,7 +4777,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>삼성전자는 인도네시아에서 TKDN 비율을 높이며 현지 시장에 적응하고 있다.</t>
+          <t>삼성전자가 인도네시아 TKDN 규정을 충족하며 현지 생산 비율을 높이고 있다.</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>삼성전자가 평택캠퍼스 P4 라인 건설 재개를 검토하며 D램 및 파운드리 생산능력 확충을 추진한다.</t>
+          <t>삼성전자가 평택캠퍼스의 반도체 라인 건설 재개를 검토 중이라는 내용의 기사입니다.</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>방송통신위원회가 국내 앱 마켓 실태조사 결과를 발표하며 수수료와 결제방식 강제 문제를 지적했다.</t>
+          <t>방송통신위원회가 국내 앱 마켓 실태조사 결과를 발표했다.</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>엔비디아가 AI 열풍으로 삼성전자를 제치고 반도체 시장 매출 1위를 기록했다.</t>
+          <t>엔비디아가 삼성전자를 제치고 반도체 시장 매출 1위를 차지했다.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="L77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>AI 기술 발전으로 엔비디아와 SK하이닉스가 반도체 시장에서 두각을 나타내며 삼성전자는 HBM 성과가 절실하다.</t>
+          <t>엔비디아와 SK하이닉스의 AI 반도체 시장에서의 성과와 삼성전자의 도전 과제를 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="L78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -5077,7 +5077,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>SK하이닉스가 AI 반도체 시장에서 TSMC 및 엔비디아와 협력을 강화하며 주도권을 이어가고 있다.</t>
+          <t>SK하이닉스가 TSMC 및 엔비디아와 협력하여 HBM4 개발 및 AI 반도체 시장에서의 주도권을 강화하고 있다.</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5129,7 +5129,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>엔비디아가 삼성전자를 제치고 글로벌 반도체 매출 1위에 올랐다.</t>
+          <t>관련 기사가 없습니다.</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="L80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>트럼프의 관세 유예로 삼성전자가 생산지 다변화를 통해 관세 영향을 완화할 기회를 얻게 됐다.</t>
+          <t>트럼프 대통령의 관세 유예 조치로 삼성전자가 생산지 다변화를 통해 숨통을 트일 가능성이 제기된다.</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="L81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>엔비디아가 삼성전자를 제치고 세계 최대 반도체 기업으로 등극했다.</t>
+          <t>엔비디아가 삼성전자와 인텔을 제치고 반도체 시장 1위를 차지했다.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5258,7 +5258,7 @@
         </is>
       </c>
       <c r="L82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>국내 증시와 환율 변동에 대한 내용으로 삼성전자 관련 직접적인 내용은 없습니다.</t>
+          <t>코스피와 코스닥의 혼조세로 인한 주가 변동과 관련된 기사입니다.</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>삼성전자가 시네마콘 2025에서 극장 전용 시네마 LED 스크린 '오닉스' 신제품을 공개했다.</t>
+          <t>삼성전자가 '오닉스'라는 새로운 시네마 LED 스크린을 공개했다.</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>방송통신위원회와 KISA가 앱 마켓 실태조사 결과를 발표하며 불공정 사례를 지적했다.</t>
+          <t>방송통신위원회와 한국인터넷진흥원이 앱 마켓 실태조사 결과를 발표했다.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>미국 증시 급락 여파로 코스피와 주요 대형주가 하락세를 보이고 있다.</t>
+          <t>미국 증시 급락으로 코스피와 코스닥 지수가 하락하며 삼성전자를 포함한 주요 종목이 약세를 보였다.</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>SK실트론 매각 관련 소식과 주요 인수 후보에 대한 정보를 다루고 있습니다.</t>
+          <t>SK실트론 매각 관련 기사로 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>삼성전자의 차세대 스마트폰 운영체제 원UI 8 개발 소식이 보도되었다.</t>
+          <t>삼성전자의 차세대 스마트폰 운영체제 원UI 8 개발 관련 소식.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>오준호 삼성전자 미래로봇추진단장이 휴머노이드 산업의 기술 표준화 필요성을 강조했다.</t>
+          <t>오준호 삼성전자 미래로봇추진단장이 휴머노이드 산업 동향을 진단하며 기술 표준화의 필요성을 강조했다.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>에이치티씨가 삼성전자 등 대기업을 고객사로 확보하며 코스닥 상장을 준비 중이다.</t>
+          <t>에이치티씨가 삼성전자 등 대기업과 협력하며 코스닥 상장을 준비 중이다.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>삼성전자가 퀄컴과 협력하여 XR 헤드셋의 핵심 반도체 칩을 4나노 공정으로 생산한다.</t>
+          <t>삼성전자가 퀄컴과 협력하여 XR 헤드셋용 칩을 4나노 공정으로 생산 중이다.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>삼성전자와 관련된 내용이지만 삼성생명과는 직접적인 연관이 없습니다.</t>
+          <t>삼성전자와 LG전자의 1분기 실적 및 AI TV 기술에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5909,7 +5909,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>트럼프 대통령의 엔비디아 AI 칩 수출 규제 철회로 국내 메모리 기업들이 수혜를 볼 전망이다.</t>
+          <t>트럼프가 엔비디아의 중국 수출 규제를 철회하여 국내 메모리 기업들이 수혜를 입을 전망이다.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>삼성전자가 트럼프 대통령의 상호관세 유예 조치로 관세 리스크를 피했다는 내용의 기사입니다.</t>
+          <t>삼성전자 스마트폰이 관세 유예 조치로 피해를 피했다는 내용의 기사입니다.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>한화에어로스페이스의 유상증자 방식 변경이 주가 상승에 긍정적 영향을 미쳤다는 내용의 기사입니다.</t>
+          <t>한화에어로스페이스의 유상증자 및 주가 변동에 관한 기사입니다.</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>삼성전자가 갤럭시S26 울트라에 UDC 기술 도입을 연기할 가능성이 있다는 소식이 전해졌다.</t>
+          <t>삼성전자의 갤럭시S26 울트라에 UDC 기술 도입이 어려울 것이라는 전망이 나왔다.</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>미국 반도체주 급락으로 삼성전자 등 국내 반도체주가 약세를 보이고 있다.</t>
+          <t>미국 반도체주 급락으로 삼성전자와 SK하이닉스 등 국내 반도체 종목들이 약세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6201,7 +6201,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>이 기사는 삼성전자와 관련된 내용이 없으며, 주로 미국과 중국의 관세 문제와 주식 시장에 대한 논의입니다.</t>
+          <t>미국과 중국의 관세 전쟁 및 경제 상황에 대한 전문가 대담 내용.</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6253,7 +6253,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>트럼프 행정부의 상호관세 유예가 삼성 스마트폰 공급망 조정에 영향을 미치고 있다.</t>
+          <t>삼성전자의 스마트폰 생산 및 관세 문제에 관한 기사로, 삼성생명과 직접적인 연관성이 없습니다.</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>미국의 상호관세 유예로 국내 산업계는 안도했으나 불확실성은 여전한 상황이다.</t>
+          <t>미국의 상호관세 유예 결정에 따른 국내 산업계의 대응 방안 논의.</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>중소벤처기업부가 국내 파운드리와 협력하여 팹리스 스타트업에 시제품 제작 지원을 발표했다.</t>
+          <t>중소벤처기업부가 팹리스 스타트업 지원을 위한 2025년 팹리스 챌린지를 공고했다.</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>서영진 전 삼성전자 상무가 산업부 국가표준원 기술규제대응국장으로 영입되었다.</t>
+          <t>삼성전자 출신 서영진이 산업부 국가표준원 국장으로 임명되었다.</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -6493,16 +6493,16 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>SK하이닉스가 삼성전자를 제치고 글로벌 D램 시장 1위에 오르며 메모리 패권 경쟁에서 우위를 점했다.</t>
+          <t>관련된 삼성생명 또는 삼성전자 주제의 기사가 아닙니다.</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>삼성전자가 차기 폴더블 스마트폰 갤럭시 폴드·Z플립7 양산을 시작하고 AP 공급망 형성에 주목하고 있다.</t>
+          <t>삼성전자가 갤럭시 폴드·Z플립7 시리즈의 양산을 시작하며 엑시노스 2500 탑재 여부에 관심이 집중되고 있다.</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>삼성전자가 관세 이슈로 주가 변동을 겪으며 투자자들의 불안을 가중시키고 있다.</t>
+          <t>미국과 국내 주식시장에서 큰 변동성이 발생하며 투자자들이 어려움을 겪고 있다.</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="L105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>삼성전자의 경영진 변화와 MX사업부의 전략 및 과제를 다룬 기사입니다.</t>
+          <t>삼성전자 MX사업부의 리더십 재편과 관련된 기사입니다.</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>개인 투자자들이 삼성전자와 SK하이닉스를 중심으로 적극 매수에 나서며 CMA 잔고가 감소했다.</t>
+          <t>삼성전자와 SK하이닉스 중심으로 개인 투자자들이 주식을 매수했다.</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="L107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -6793,16 +6793,16 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>코스피 지수가 하락하며 삼성전자를 포함한 주요 주식들이 하락세를 보이고 있다.</t>
+          <t>코스피 지수 하락과 관련된 기사로 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>민상렬 교수는 플래시 메모리 저장장치 연구로 반도체 업계에 혁신을 가져왔다.</t>
+          <t>서울대 민상렬 교수의 SSD 연구가 삼성전자와 SK하이닉스의 혁신에 기여했다는 내용의 기사입니다.</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6913,7 +6913,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>SK그룹의 로봇사업 진출과 유일로보틱스 인수 가능성에 대한 기사.</t>
+          <t>SK그룹의 로봇 사업 확장과 관련된 내용으로 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6973,16 +6973,16 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>삼성전자는 코스피에서 1.95% 하락하며 부진한 모습을 보이고 있다.</t>
+          <t>펩트론과 코스닥 지수 상승 등 주식 시장 동향을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>AI 인프라 투자로 글로벌 반도체 매출이 증가하고 기업들의 순위 변동이 발생했다.</t>
+          <t>AI 인프라 투자로 글로벌 반도체 매출이 증가하며 엔비디아가 1위에 올랐다.</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -7093,7 +7093,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>삼성전자가 미국 관세를 피하기 위해 스마트폰 생산을 브라질로 옮기는 방안을 검토 중이다.</t>
+          <t>삼성전자와 애플이 미국 관세를 피하기 위해 생산기지 이전을 검토 중이다.</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="L113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -7145,7 +7145,7 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>삼성전자가 1분기 가정용 에어컨 판매량이 51% 증가했다고 발표.</t>
+          <t>삼성전자의 가정용 에어컨 판매량 증가 소식.</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>삼성전자 노사가 성과급 제도 개선을 위한 TF 첫 회의를 진행했습니다.</t>
+          <t>삼성전자 노사가 성과급 제도 개선을 위한 TF 첫 회의를 개최했습니다.</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>구글과 삼성전자가 AI 파트너십을 확대하여 AI 가정용 로봇 볼리를 출시한다.</t>
+          <t>삼성전자와 구글의 AI 파트너십 확대로 가정용 로봇 '볼리'에 생성형 AI 모델 '제미나이'가 탑재된다.</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>미국 반도체주 하락 여파로 삼성전자와 SK하이닉스 주가가 하락했다.</t>
+          <t>미국 반도체주 하락으로 삼성전자와 SK하이닉스 주가도 약세를 보였다.</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>삼성전자가 인도 정부의 전자 폐기물 처리비용 규제에 대해 우려를 표명했다.</t>
+          <t>인도 정부가 전자 폐기물 재활용 비용 규제에 대해 삼성전자와 LG전자가 반발하고 있다.</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>노태문 삼성전자 DX부문장 직무대행이 조직 문화 개선과 미래 기술 확보를 강조했다.</t>
+          <t>노태문 삼성전자 DX부문장 직무대행이 조직 문화 혁신과 미래 기술 확보를 강조했다.</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -7497,7 +7497,7 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>엔비디아가 삼성전자를 제치고 글로벌 반도체 매출 1위를 기록했다는 소식입니다.</t>
+          <t>엔비디아가 삼성전자를 제치고 글로벌 반도체 매출 1위를 기록했다는 기사.</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="L120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -7557,12 +7557,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>노태문 삼성전자 DX부문장 직무대행이 조직 문화 혁신을 강조하며 리더십 공백 해소를 추진하고 있다.</t>
+          <t>삼성전자 노태문 신임 DX부문장 직무대행 관련 기사로 삼성생명과 무관함.</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L121" t="b">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>가트너는 2024년 반도체 시장에서 엔비디아가 삼성전자와 인텔을 제치고 1위를 차지했다고 발표했다.</t>
+          <t>글로벌 반도체 시장에서 엔비디아가 삼성전자를 제치고 매출 1위를 기록했다.</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>노태문 삼성전자 DX부문장 직무대행이 리더십 공백 해소와 조직 재정비를 강조했다.</t>
+          <t>삼성전자 DX부문의 노태문 직무대행이 리더십 공백 해소와 조직 재정비를 강조했다.</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>삼성전자와 LG전자의 에어컨 판매량이 급증하며 생산 공장을 풀가동하고 있다.</t>
+          <t>삼성전자와 LG전자의 에어컨 판매량이 전년 대비 크게 증가했다.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>삼성전자 DX부문 노태문 직무대행이 조직 문화 혁신과 미래 기술 확보를 강조했다.</t>
+          <t>삼성전자 DX부문장 직무대행이 '원 삼성' 모토 아래 조직 문화 개선과 신기술 접목을 강조했다.</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>엔비디아가 삼성전자를 제치고 반도체 매출 1위를 차지했다는 내용의 기사입니다.</t>
+          <t>엔비디아가 삼성전자와 인텔을 제치고 반도체 매출 1위를 기록했다.</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>삼성전자는 반도체 매출 증가로 글로벌 순위 2위에 올랐다.</t>
+          <t>글로벌 반도체 시장에서 삼성전자와 SK하이닉스의 매출 순위 상승.</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -7926,7 +7926,7 @@
         </is>
       </c>
       <c r="L127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>삼성전자 DX부문장이 임직원들에게 변화와 협력을 강조하는 메시지를 전달했다.</t>
+          <t>삼성전자 DX부문장 직무대행 노태문이 임직원들에게 유연하고 민첩한 실행을 강조했다.</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>앱 마켓 실태조사 결과 발표, 삼성전자 갤럭시스토어 매출 증가.</t>
+          <t>방송통신위원회가 2024년 앱 마켓 실태조사 결과를 발표하여 앱 개발자들의 불공정 사례를 분석했다.</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>삼성전자는 지난해 반도체 부문에서 매출 2위를 유지하며 60.2%의 성장을 기록했다.</t>
+          <t>엔비디아가 글로벌 반도체 시장에서 매출 1위를 차지하며 삼성전자는 2위를 유지했다.</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -8106,7 +8106,7 @@
         </is>
       </c>
       <c r="L130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>삼성전자 DX부문 노태문 직무대행이 조직 효율성을 강조하며 리더십 공백 해소를 위한 메시지를 전달했다.</t>
+          <t>삼성전자 DX부문 노태문 직무대행이 조직 문화 혁신을 강조했다.</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>앱 마켓의 수수료 및 불공정 사례에 대한 조사 결과가 발표되었습니다.</t>
+          <t>앱 마켓의 수수료와 불공정 사례에 대한 조사 결과가 발표되었습니다.</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>삼성전자와 LG전자의 에어컨 판매량이 증가하며 공장 풀가동에 들어갔다.</t>
+          <t>삼성전자의 가정용 에어컨 판매량 증가에 관한 기사입니다.</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>노태문 삼성전자 DX부문장 직무대행이 조직 문화 개선과 미래 경쟁력 확보를 강조했습니다.</t>
+          <t>삼성전자 DX부문장 직무대행 노태문 사장이 조직 재정비를 강조하며 리더십 공백 우려를 해소하고자 함.</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>삼성전자가 인텔을 제치고 반도체 매출 순위 2위를 유지했다는 소식.</t>
+          <t>삼성전자가 인텔을 제치고 반도체 매출 2위를 유지했다.</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>SK하이닉스, 엔비디아, TSMC 간 협력 강화와 HBM4 양산 계획에 대한 논의.</t>
+          <t>SK하이닉스가 TSMC와 협력하여 HBM4 개발을 추진하고 있다.</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>우리나라 앱 개발자들이 앱 내 결제 수수료를 가장 큰 문제로 인식하고 있다는 조사 결과가 발표되었다.</t>
+          <t>앱 개발자들이 앱 내 결제의 과도한 수수료를 가장 큰 문제로 인식하고 있다는 조사 결과가 발표되었습니다.</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>방통위가 발표한 앱 마켓 실태조사 결과, 삼성전자 갤럭시스토어의 매출이 증가했다.</t>
+          <t>방송통신위원회가 2024년도 앱 마켓 실태조사 결과를 발표하고 앱 내 결제의 과도한 수수료 문제를 지적했다.</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -8637,7 +8637,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>엔비디아가 반도체 시장에서 1위를 차지하며 삼성전자는 2위로 하락했다는 내용의 기사입니다.</t>
+          <t>엔비디아가 2024년 반도체 시장 매출 1위를 기록하며 GPU와 HBM 중심의 성장세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>엔비디아가 삼성전자를 제치고 글로벌 반도체 매출 1위에 올랐다.</t>
+          <t>엔비디아가 삼성전자를 제치고 글로벌 반도체 매출 1위를 기록했다.</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="L140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>2023년 국내 앱마켓 거래액 감소 속 삼성전자 갤럭시스토어는 매출 증가를 기록했다.</t>
+          <t>앱 마켓 실태조사 결과 발표, 삼성 갤럭시스토어 매출 증가.</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -8766,7 +8766,7 @@
         </is>
       </c>
       <c r="L141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -8817,16 +8817,16 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>삼성전자가 인도 정부의 전자폐기물 처리비용 최저가제 도입에 난색을 표하며 비용 증가를 우려하고 있다.</t>
+          <t>인도 정부의 전자폐기물 처리비용 최저가제 도입에 삼성전자가 난색을 보이고 있다.</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>미국 반도체 주가 하락으로 삼성전자 주가도 하락세를 보이고 있다.</t>
+          <t>미국 반도체 주가 하락으로 삼성전자와 SK하이닉스 주가도 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>방송통신위원회가 앱 마켓의 불공정 사례와 개선 방안을 발표했다.</t>
+          <t>방송통신위원회와 한국인터넷진흥원이 앱 마켓의 불공정 사례와 문제점을 조사 발표했다.</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>SK하이닉스의 1분기 실적과 향후 전망에 대한 긍정적인 평가가 주를 이룬다.</t>
+          <t>SK하이닉스의 1분기 실적이 삼성전자를 제치고 호조를 보일 것으로 예상된다.</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -9117,7 +9117,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>트럼프 행정부가 엔비디아의 H20 칩 중국 수출 제한 계획을 철회하며 한국 반도체 기업에 영향.</t>
+          <t>트럼프 행정부가 엔비디아의 H20 칩 중국 수출 제한 계획을 철회하여 한국 반도체 기업에 영향.</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>삼성전자와 LG전자가 건조 용량을 확대하여 세탁건조기 시장 경쟁이 치열해지고 있다.</t>
+          <t>LG전자가 건조 용량을 늘린 세탁건조기 신제품을 하반기 출시할 예정이다.</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="L148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>삼성전자 DX 부문장이 조직 문화 개선과 기술 혁신을 강조하며 미래 경쟁력 확보를 다짐했다.</t>
+          <t>삼성전자 DX 부문 노태문 사장이 조직 문화 개선과 미래 기술 확보를 강조했다.</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -9297,7 +9297,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>삼성전자가 구글 클라우드와 협력하여 AI 로봇 '볼리'에 제미나이를 탑재할 예정이다.</t>
+          <t>삼성전자가 AI 로봇 '볼리'에 구글 클라우드의 제미나이를 탑재하여 AI 기능을 강화한다.</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>앱 마켓 실태조사 결과 국내 앱 개발자들이 과도한 수수료와 불공정 사례를 문제점으로 지적했다.</t>
+          <t>앱 마켓 실태조사 결과, 인앱 결제 수수료와 심사 지연이 주요 문제로 지적됨.</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>엔비디아가 인텔과 삼성전자를 제치고 반도체 공급사 매출 1위에 올랐다는 소식입니다.</t>
+          <t>엔비디아가 인텔과 삼성전자를 제치고 반도체 매출 1위에 올랐다.</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="L152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>한화에어로스페이스 주가가 유상증자 이후 반등하며 증권사들의 긍정적 평가를 받았다.</t>
+          <t>한화에어로스페이스 주가가 유상증자 우려 해소로 급등하며 증권사들의 긍정적 평가를 받았다.</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>미중 무역전쟁 우려로 코스피 지수가 하락하며 삼성전자 등 주요 종목이 하락세를 보였다.</t>
+          <t>삼성전자 주가와 관련된 내용으로 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>반도체 업계가 정부의 지원을 촉구하며 중국과의 경쟁에서 우위를 확보하려는 노력을 강조했다.</t>
+          <t>반도체 업계가 정부에 지원을 촉구하며 중국과의 기술 격차를 벌리려는 전략을 논의 중이다.</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -9606,7 +9606,7 @@
         </is>
       </c>
       <c r="L155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>삼성전자 주가 및 거래량 관련 정보가 포함된 국내 증시 개장 소식.</t>
+          <t>삼성전자 주식 관련 기사로 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -9717,16 +9717,16 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>미국 증시 영향으로 삼성전자를 포함한 국내 대형 반도체주 주가가 하락세를 보이고 있다.</t>
+          <t>삼성전자 주가 관련 기사로 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -9777,16 +9777,16 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>삼성전자 등 국내 증시 시총 상위 종목들이 미중 무역갈등 우려로 하락세를 보이고 있다.</t>
+          <t>국내 증시와 뉴욕 증시의 하락세에 대한 분석을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -9837,16 +9837,16 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>삼성전자 주가가 코스피 하락과 관세 불안으로 인해 2.13% 하락했습니다.</t>
+          <t>코스피와 미국 증시의 하락세가 관세 불확실성에 영향을 받았다.</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -9897,7 +9897,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>미중 관세전쟁 격화로 코스피와 코스닥지수가 하락세를 보이며 외국인은 순매도로 전환했다.</t>
+          <t>미·중 관세전쟁으로 인한 한국 증시의 변동 상황을 보도.</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>음식물처리기가 새로운 가전 대세로 떠오르는 가운데 삼성전자는 시장 진입을 주저하고 있다.</t>
+          <t>삼성전자가 음식물처리기 시장에 아직 본격적으로 진출하지 않고 있는 상황을 설명하는 기사입니다.</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -10017,7 +10017,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>미중 무역갈등으로 인한 국내 및 국제 증시 하락에 대한 보도입니다.</t>
+          <t>미중 무역갈등으로 인한 국내 금융시장 변동성에 관한 기사입니다.</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -10077,7 +10077,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수 변동 및 주요 업종 주가 흐름을 전하는 기사입니다.</t>
+          <t>삼성전자 주가 하락 등 주식시장 변동에 대한 내용입니다.</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>KG모빌리티가 토레스 하이브리드 시승 이벤트를 개최하고 삼성전자 제품을 경품으로 제공한다.</t>
+          <t>KG모빌리티가 토레스 하이브리드 론칭 기념 시승 이벤트를 진행하며 삼성전자 제품을 경품으로 제공한다.</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -10197,16 +10197,16 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>삼성전자 주가가 코스피 하락세와 함께 2.13% 하락했습니다.</t>
+          <t>삼성전자 주가 하락과 관련된 코스피 전반 상황을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -10257,7 +10257,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>공정위가 거짓·과장 광고를 한 온라인 강의 업체들에 과징금을 부과했다.</t>
+          <t>공정위가 에듀윌과 에스티유니타스의 거짓·과장 광고에 과징금을 부과했다.</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -10309,16 +10309,16 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>SK하이닉스가 삼성전자를 제치고 D램 시장에서 1위를 차지하며 삼성전자에 뼈아픈 일격을 가했다.</t>
+          <t>SK하이닉스가 D램 시장에서 삼성전자를 제치고 1위를 차지했다.</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -10369,7 +10369,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>TSMC의 반도체 산업 내 위치와 전략에 대한 분석 기사입니다.</t>
+          <t>이 기사는 TSMC와 반도체 산업에 대한 내용으로 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -10429,7 +10429,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>트럼프 행정부의 관세 정책이 기업 실적에 미치는 영향에 대한 분석 기사입니다.</t>
+          <t>삼성전자 실적과 관련된 관세 정책의 불확실성에 대한 기사.</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>양향자 전 의원이 국민의힘에 입당해 대선 출마를 선언하고 첨단산업 발전을 강조했습니다.</t>
+          <t>양향자 전 의원의 국민의힘 입당과 대선 출마 결정에 관한 인터뷰 내용.</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>SK하이닉스가 D램 시장 점유율에서 삼성전자를 앞섰다는 내용이 주요 기사이다.</t>
+          <t>미래에셋증권 투자자들의 최근 순매수 및 순매도 종목 동향을 소개하는 기사입니다.</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -10609,7 +10609,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>UNIST가 AI 스마트 캠퍼스를 운영하며 AI 교육과 연구를 강화하는 계획을 발표했다.</t>
+          <t>UNIST가 AI 스마트 캠퍼스를 운영하며 AI 교육과 연구를 강화하고 있다.</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -10669,16 +10669,16 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>삼성전자를 포함한 시가총액 상위주가 미국과 중국의 관세 갈등으로 주가 하락을 겪었다.</t>
+          <t>코스피와 코스닥 시장의 주가 변동과 외국인 매도세에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>삼성전자와 관련된 내용이 없으며 주식 시장 전반에 대한 정보만 제공하는 기사입니다.</t>
+          <t>코스피와 코스닥 지수의 하락과 조선주의 상승세에 대한 시장 동향을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -10789,7 +10789,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>AI 및 데이터센터 수요 증가로 인해 반도체 기업들의 실적이 개선되었다는 내용의 기사입니다.</t>
+          <t>삼성전자를 포함한 여러 기업의 실적과 법인세비용 변동에 관한 기사입니다.</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -10841,16 +10841,16 @@
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>엔비디아가 삼성전자를 제치고 반도체 매출 1위에 올랐으며, 삼성전자는 2위를 유지했습니다.</t>
+          <t>삼성전자 관련 기사로 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>삼성전자 평택캠퍼스 관련 부동산 시장 회복 조짐에 대한 기사입니다.</t>
+          <t>삼성전자 평택캠퍼스 셧다운 해제가 평택 부동산 시장에 긍정적 영향을 미치고 있다.</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>코스피와 코스닥의 주가 변동 상황을 보도하며 삼성전자 주가 하락을 언급한 기사.</t>
+          <t>코스피와 코스닥의 주가 변동과 관련된 내용.</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>삼성전자 관련 내용이 없는 기사입니다.</t>
+          <t>해당 기사는 삼성전자와 관련된 주식 및 시가총액에 대한 내용으로, 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>DGIST 창업기업 잇츠센서가 정부 지원 사업에 선정되어 기술력을 인정받았다.</t>
+          <t>잇츠센서가 정부 지원을 받아 자율주행로봇 개발에 나선다.</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -11141,7 +11141,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>미국과 중국의 관세전쟁으로 인해 코스피와 코스닥 지수가 하락 출발했습니다.</t>
+          <t>코스피와 코스닥 지수가 관세전쟁 영향으로 하락 출발했다.</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>트럼프 대통령의 관세 정책과 관련하여 한국 기업들의 다양한 반응이 소개된 기사입니다.</t>
+          <t>트럼프 대통령의 관세 정책이 한국 기업들에 미치는 영향에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>삼성전자를 포함한 주요 종목들이 프리마켓에서 상승세를 보이며 증시 변동성 속 투자자 관심이 증가했다.</t>
+          <t>삼성전자 등 주요 기업의 주가 상승세를 보인 애프터마켓 상황을 리뷰한 기사입니다.</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -11270,7 +11270,7 @@
         </is>
       </c>
       <c r="L183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -11313,7 +11313,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>국민연금 개혁안 통과로 기금 규모와 투자 전략 변화에 대한 내용입니다.</t>
+          <t>국민연금의 보험료율 인상과 투자 전략 변화에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>엔비디아가 AI 시장 성장에 힘입어 세계 1위 반도체 기업으로 부상했다.</t>
+          <t>엔비디아가 AI 시장 성장으로 세계 1위 반도체 기업으로 부상했다.</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -11485,7 +11485,7 @@
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>삼성전자 평택캠퍼스 가동 소식으로 고덕신도시 부동산 시장에 긍정적 영향을 미치고 있다.</t>
+          <t>삼성전자 평택캠퍼스 가동 소식으로 고덕신도시 부동산 시장이 활기를 띠고 있다.</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>삼성전자와 관련된 내용이 없으며, 주로 글로벌 경제와 주식시장에 대한 내용입니다.</t>
+          <t>기사 내용은 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -11605,16 +11605,16 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>삼성전자가 평택캠퍼스 4라인 건설 재개를 검토하며 D램과 파운드리를 복합 구성할 계획입니다.</t>
+          <t>해당 기사는 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -11665,7 +11665,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>미중 무역 갈등으로 코스피와 코스닥 지수가 하락하며 삼성전자도 약세를 보이고 있다.</t>
+          <t>미중 무역 갈등으로 인해 코스피와 코스닥 지수가 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="L190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -11725,7 +11725,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>서울대 컴퓨터연구소의 AI 연구와 컴퓨팅 기술 개발에 대한 기사입니다.</t>
+          <t>서울대 컴퓨터연구소가 AI와 컴퓨터 아키텍처 혁신을 연구하는 내용.</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>삼성전자가 구글 AI 기술을 적용한 가정용 로봇 '볼리'를 소개했다.</t>
+          <t>삼성전자가 구글 AI '제미나이'를 가정용 로봇 '볼리'에 탑재한다는 내용의 기사입니다.</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -11845,7 +11845,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>미중 관세 전쟁으로 인한 주식 시장 변동 상황을 전하는 기사입니다.</t>
+          <t>미국과 중국의 관세 전쟁 격화로 코스피와 코스닥 지수가 하락세를 보였다.</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -11905,7 +11905,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>잇츠센서의 정밀 센서 기반 자율주행로봇 기술력이 정부 지원을 받아 상용화를 추진 중이다.</t>
+          <t>잇츠센서가 자율주행로봇 기술로 정부 지원금을 확보하고 상용화를 추진 중이다.</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>구글 클라우드의 보안 강점과 한국 기업과의 협업이 강조된 기사입니다.</t>
+          <t>구글 클라우드 CEO가 보안 솔루션의 강점을 강조하며 한국 공공 분야 진출 계획을 발표했다.</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -12025,7 +12025,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수의 외국인 매도 및 매수세로 인한 변동을 다룬 기사.</t>
+          <t>코스피와 코스닥의 주가 변동과 조선주 강세가 주요 내용이다.</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -12077,7 +12077,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>기사 내용은 닛토덴코와 관련된 고용 승계 문제를 다루고 있으며, 삼성전자와 직접적인 연관은 없습니다.</t>
+          <t>일본 기업 닛토덴코의 고용 승계 문제와 관련된 논란을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>장제원의 성폭력 사건과 관련된 피해자의 고통과 사회적 반응을 다룬 기사입니다.</t>
+          <t>장제원 전 의원의 성폭력 사건과 관련된 피해자의 입장문이 공개되었습니다.</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>미중 관세 갈등으로 코스피와 코스닥 지수가 하락세를 보이는 가운데 조선주가 강세를 보이고 있다.</t>
+          <t>미중 관세 갈등으로 코스피와 코스닥 지수가 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -12249,7 +12249,7 @@
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr">
         <is>
-          <t>부동산 시장의 변화와 규제 완화에 대한 기대감이 커지고 있다.</t>
+          <t>정치적 불확실성 해소와 함께 부동산 시장의 규제 완화 기대감이 커지고 있다.</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -12309,7 +12309,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>코스피 지수 하락과 관련된 시장 상황을 설명하는 기사입니다.</t>
+          <t>코스피 지수와 주요 기업 주가 하락에 대한 기사로, 삼성생명과 직접적인 연관은 없음.</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -12369,7 +12369,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>삼성전자가 베트남에서 새로운 부사장을 선임하고 관세 문제에 대응하고 있다.</t>
+          <t>삼성전자 베트남 사업 관련 인사 이동과 관세 문제에 대한 대응을 다룬 기사.</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수의 변동 상황과 투자 동향을 전하는 기사입니다.</t>
+          <t>코스피와 코스닥 지수 관련 시장 동향을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -12489,7 +12489,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수의 변동과 외국인 매도세에 대한 분석 기사입니다.</t>
+          <t>코스피와 코스닥 지수의 변동 상황 및 외환 시장 동향을 전하는 기사입니다.</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -12549,7 +12549,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>외국인 투자자들이 관세 우려 완화로 한국 증시 순매수 전환했으나 삼성전자는 순매도했다.</t>
+          <t>외국인의 국내 증시 매수세가 관세 우려 완화와 환율 안정으로 긍정적 영향을 받았으나, 본격적인 유입은 어려울 전망이다.</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -12609,7 +12609,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>네이버웹툰 '마루'와 카카오프렌즈 '춘식이'의 콜라보 소식을 전하는 기사입니다.</t>
+          <t>네이버웹툰과 카카오프렌즈의 협업 소식으로 삼성 관련 내용은 없음.</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -12721,7 +12721,7 @@
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>이 기사는 삼성전자와 직접적인 관련이 없고, 미중 무역 전쟁에 관한 내용을 다루고 있습니다.</t>
+          <t>기사는 미국과 중국의 관세 전쟁 및 경제적 대립에 대한 내용으로, 삼성 관련 내용은 포함되어 있지 않음.</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -12773,7 +12773,7 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>국내 로봇 기업과 AI 전문가들이 휴머노이드 개발을 위해 협력한다.</t>
+          <t>삼성전자가 인수한 레인보우로보틱스 등 로봇 기업들이 휴머노이드 AI 개발을 위해 협력한다.</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -12833,7 +12833,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>미중 관세전쟁으로 한국 증시가 하락세를 보이며 외국인 투자자들이 순매도로 전환했다.</t>
+          <t>미중 관세전쟁으로 코스피와 코스닥 지수가 하락세를 보이며 외국인 순매도가 재개되었다.</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -12893,7 +12893,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>미중 무역 갈등과 관세 이슈로 인한 코스피와 코스닥 지수 변동을 다룬 기사입니다.</t>
+          <t>삼성전자 주가 하락과 코스피, 코스닥 시장 동향을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -12953,7 +12953,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>미중 관세전쟁으로 인한 한국 증시 변동 상황을 보도한 기사입니다.</t>
+          <t>미중 관세전쟁 여파로 한국 증시가 약세를 보이고 있으며, 삼성전자 주가가 하락했다.</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>트럼프 행정부의 관세 정책으로 삼성전자 주가가 하락하며 코스피 지수에 영향을 미쳤습니다.</t>
+          <t>트럼프 행정부의 관세정책이 증시 변동성에 영향을 미쳤다는 내용의 기사입니다.</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -13022,7 +13022,7 @@
         </is>
       </c>
       <c r="L213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -13073,16 +13073,16 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>미중 관세 전쟁의 여파로 삼성전자 주가가 하락하며 시장 불안이 커지고 있습니다.</t>
+          <t>미중 관세 전쟁으로 인한 증시 변동성을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -13133,7 +13133,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수가 급락하며 주식 시장이 불안정한 모습을 보이고 있다.</t>
+          <t>코스피와 코스닥 지수가 급락세를 보이며 삼성전자를 포함한 주요 종목들이 하락했다.</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -13193,7 +13193,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>DGIST 창업기업 잇츠센서가 정부 지원 프로젝트에 선정되어 기술력과 상용화 가능성을 인정받았다.</t>
+          <t>DGIST 창업기업 잇츠센서가 정부 지원 프로젝트에 선정되어 기술력을 인정받았다.</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -13245,7 +13245,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>삼성전자가 포함된 반도체 업계의 시장 동향과 전망에 대한 분석 기사입니다.</t>
+          <t>반도체 업황과 관련된 내용으로, 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -13254,7 +13254,7 @@
         </is>
       </c>
       <c r="L217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -13305,7 +13305,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>미중 관세전쟁과 외인 매도세로 코스피 지수가 하락하며 시총 상위주 주가가 조정되었다.</t>
+          <t>삼성전자 등 시가총액 상위주의 주가 하락이 코스피 지수에 영향을 미쳤다.</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -13365,7 +13365,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 시장의 움직임 및 주요 종목의 주가 변동에 대한 내용입니다.</t>
+          <t>삼성전자 주가 관련 내용으로 삼성생명과 직접적 연관이 없는 기사입니다.</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -13417,16 +13417,16 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>삼성전자가 인도의 전자제품 폐기물 처리비용 최저가제 도입에 대해 비용 증가를 우려하고 있다.</t>
+          <t>인도 정부의 전자제품 폐기 처리비용 최저가제 도입에 대해 삼성전자가 비용 증가를 우려하고 있다.</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -13477,7 +13477,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>SK하이닉스가 HBM 개발 조직을 맞춤형과 표준형으로 이원화하여 기술 리더십을 강화하고 있다.</t>
+          <t>SK하이닉스가 HBM 개발 조직을 이원화하여 기술 리더십과 시장 점유율 확대를 노리고 있다.</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -13537,7 +13537,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>잇츠센서가 정부 지원을 받아 자율주행 기술 고도화에 나선다.</t>
+          <t>잇츠센서가 정부 지원을 받아 자율주행 기술을 고도화하고 상용화에 나선다는 내용의 기사입니다.</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -13597,7 +13597,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>미중 관세 전쟁으로 인해 국내 증시가 하락했으나 조선주는 상승세를 보였다.</t>
+          <t>코스피와 코스닥의 주가 변동 상황과 관련된 기사입니다.</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -13657,7 +13657,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수 변동에 대한 내용으로 삼성생명과 직접적인 연관은 없음.</t>
+          <t>미중 관세 갈등으로 코스피 지수가 하락하며 삼성전자 등 주요 주식이 하락세를 보였다.</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -13717,16 +13717,16 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>미중 관세 갈등과 경기침체 우려로 삼성전자 등 국내 증시가 하락세를 보이고 있다.</t>
+          <t>삼성전자 주식 관련 내용으로 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -13777,7 +13777,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>미중 무역전쟁 우려로 코스피와 코스닥 지수가 하락하며 시장 전반에 부정적 영향을 미쳤다.</t>
+          <t>미중 무역전쟁 심화로 인한 코스피와 코스닥 지수 하락 소식.</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -13837,16 +13837,16 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>삼성전자를 포함한 주요 기업 주가가 하락세를 보이며 코스피가 약세를 나타내고 있다.</t>
+          <t>코스피와 코스닥 지수 변동과 관련된 시장 동향 기사.</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -13897,7 +13897,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>기사에서는 전국 분양 소식과 관련 산업단지에 대해 다루고 있으나 삼성전자와 직접 관련은 없다.</t>
+          <t>용인 및 청주 지역의 아파트 분양 소식과 관련된 기사입니다.</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -13949,7 +13949,7 @@
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr">
         <is>
-          <t>김문수 전 장관의 대선 출마와 관련된 인터뷰 내용입니다.</t>
+          <t>김문수 전 고용노동부 장관의 대선 출마와 관련된 인터뷰 내용입니다.</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -14009,7 +14009,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>미중 관세전쟁으로 코스피와 주요 기업 주가가 하락했다.</t>
+          <t>미중 관세전쟁으로 인해 코스피와 주요 주식들이 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -14069,16 +14069,16 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>미·중 무역 갈등으로 삼성전자 등 주요 주식이 하락세를 보이고 있습니다.</t>
+          <t>미·중 무역 갈등으로 코스피와 코스닥 지수가 하락하고 있다.</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -14129,7 +14129,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수 변동 상황을 외국인 매도세와 함께 보도한 기사입니다.</t>
+          <t>코스피와 코스닥 지수 변동에 관한 기사로, 삼성전자 주가 하락이 언급되었으나 관련성은 낮음.</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -14189,7 +14189,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>김영달 대표가 삼성전자에 전력 설비 납품한 공로로 금탑산업훈장을 수상했다.</t>
+          <t>전기 산업 발전 유공자 포상 관련 기사로, 삼성전자와의 직접적 관련성은 없다.</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -14198,7 +14198,7 @@
         </is>
       </c>
       <c r="L233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -14249,16 +14249,16 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>미중 관세 전쟁 장기화로 삼성전자 등 주요 대형주 주가가 하락세를 보였다.</t>
+          <t>미국과 중국 간의 관세 전쟁으로 글로벌 증시가 하락세를 보였다.</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -14309,7 +14309,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>국민연금이 국내주식 비중을 증가시키며 수익률이 개선된 것으로 나타났다.</t>
+          <t>국민연금의 국내주식 비중 확대와 수익률 개선에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -14369,16 +14369,16 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>삼성전자를 포함한 주요 시가총액 기업들이 코스피 하락세 속에 주가 하락을 기록했다.</t>
+          <t>코스피와 코스닥 지수가 각각 하락과 상승을 보이며 마감했다.</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -14429,7 +14429,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>국내 증시와 관련된 다양한 업종의 주가 변동에 대한 내용입니다.</t>
+          <t>미중 무역 갈등과 관련하여 국내 증시가 변동성을 보였다는 내용의 기사입니다.</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -14489,7 +14489,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>미중 무역갈등으로 인한 증시 변동 상황을 보도한 기사입니다.</t>
+          <t>증시 변동과 관련된 삼성전자 주식 하락에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -14549,7 +14549,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>미중 무역 갈등으로 주요 주가 하락, 조선주는 강세를 보임.</t>
+          <t>삼성전자 주가 하락 관련 기사로 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -14601,7 +14601,7 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>중소기업 수출 품목 변화와 K뷰티 및 첨단 산업의 부상에 대한 분석 기사입니다.</t>
+          <t>중소기업 수출 품목 변화와 K뷰티의 글로벌 시장 진출에 관한 기사입니다.</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -14661,7 +14661,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>미중 무역 갈등으로 인한 증시 변동성이 지속될 것으로 전망된다.</t>
+          <t>미국과 중국의 관세 갈등으로 증시 변동성이 커지고 있다.</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>미중 무역갈등으로 인한 국내외 증시 변동 상황을 보도한 기사입니다.</t>
+          <t>미중 무역갈등으로 국내 증시와 환율이 요동치고 있다.</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>미중 관세 전쟁으로 코스피와 코스닥이 엇갈린 흐름을 보이며 마감했다.</t>
+          <t>코스피와 코스닥 지수의 변동과 미국 관세 정책이 국내 증시에 미친 영향을 분석한 기사입니다.</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>트럼프 행정부의 관세 정책 변화로 한국 기업들이 불확실성에 직면하고 있다.</t>
+          <t>트럼프 행정부의 관세 정책 변화로 인해 한국 기업들이 불확실성에 직면하고 있다.</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -14901,7 +14901,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>미중 무역갈등으로 코스피와 코스닥이 하락 출발했으나 코스닥은 상승 전환했다.</t>
+          <t>미중 무역갈등으로 국내 증시가 하락 출발했으나 오후 들어 일부 회복세를 보였다.</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -14961,7 +14961,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>양향자 전 의원의 국민의힘 입당과 대선 출마 관련 내용.</t>
+          <t>양향자 전 의원의 국민의힘 입당과 대선 출마 관련 발언을 다룬 기사.</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -15013,7 +15013,7 @@
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr">
         <is>
-          <t>삼성전자 관련 정보는 있지만 삼성생명과 직접적인 연관은 없음.</t>
+          <t>삼성전자의 엑시노스 2600 양산 소식이 포함된 기사입니다.</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -15073,7 +15073,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수의 하락세와 관련된 시장 동향을 설명하는 기사입니다.</t>
+          <t>코스피와 코스닥 지수가 하락세로 출발하며 주요 종목들의 주가가 하락했다.</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -15133,7 +15133,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>삼성전자 등 주요 종목의 주가 하락으로 코스피가 약보합으로 마감했다.</t>
+          <t>삼성전자 주식과 관련된 내용으로, 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -15142,7 +15142,7 @@
         </is>
       </c>
       <c r="L249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -15193,7 +15193,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>코스피가 외국인과 기관 투자자의 매도세로 2400선 아래로 하락했다.</t>
+          <t>코스피와 코스닥 지수의 하락 및 외환시장 동향에 관한 기사입니다.</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -15245,7 +15245,7 @@
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr">
         <is>
-          <t>윤석열 전 대통령의 퇴거와 관련된 정치적 논의에 대한 기사입니다.</t>
+          <t>윤석열 전 대통령의 퇴거와 관련된 정치적 논의 및 여론조사 결과에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -15305,7 +15305,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수가 하락과 혼조세를 보이며 투자 심리가 위축되고 있다.</t>
+          <t>코스피와 코스닥 지수가 등락을 거듭하며 혼조세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -15365,16 +15365,16 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>삼성전자를 포함한 주요 반도체 종목이 큰 낙폭을 보이며 코스피 하락세를 주도하고 있다.</t>
+          <t>코스피와 코스닥 지수 변동 및 외환시장 동향을 전하는 기사입니다.</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -15425,7 +15425,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>삼성전자가 참여한 SOCAMM 메모리 모듈 개발에 대한 기사로, 엠케이전자의 본딩와이어 개발 소식을 전함.</t>
+          <t>엠케이전자가 SOCAMM용 본딩와이어를 개발 중이라는 소식.</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -15434,7 +15434,7 @@
         </is>
       </c>
       <c r="L254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -15537,7 +15537,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>미중 관세전쟁 속에 코스피 하락, 코스닥 상승 등 국내 증시 변동성 보도.</t>
+          <t>삼성전자 주가 하락 등 국내 증시 변동성에 대한 기사로 삼성생명과 직접 관련 없음.</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -15597,16 +15597,16 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>삼성전자가 반도체주 강세로 프리마켓 거래대금 상승을 견인하며 긍정적인 투자 심리를 이끌었습니다.</t>
+          <t>트럼프 대통령의 상호관세 유예 소식으로 투자심리가 회복되어 넥스트레이드 프리마켓 거래대금이 사상 최고치를 기록했다.</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -15657,16 +15657,16 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>삼성전자를 포함한 반도체 종목들이 미·중 관세 전쟁 우려로 낙폭을 키웠다.</t>
+          <t>코스피와 코스닥의 주식 시장 동향에 대한 기사로, 삼성전자 관련 내용은 주가 하락에 대한 언급뿐이다.</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -15717,7 +15717,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>미국의 대중 관세율 변경으로 국내 증시가 하락세를 보이고 있다.</t>
+          <t>트럼프 대통령의 관세 발표로 인해 국내 증시가 하락했다.</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>미중 무역전쟁과 관련된 트럼프 대통령의 관세 정책에 대한 보도입니다.</t>
+          <t>미중 무역전쟁과 관련된 관세 정책에 대한 분석 기사입니다.</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -15837,7 +15837,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>국내 증시가 급등했으나 관세 이슈로 변동성 주의 필요.</t>
+          <t>국내 증시가 급등하며 코스피와 코스닥 지수가 상승했으나 관세 이슈로 변동성은 여전하다.</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -15897,16 +15897,16 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>미중 관세전쟁 격화로 삼성전자 등 반도체주가 하락하며 코스피가 큰 폭으로 떨어졌습니다.</t>
+          <t>코스피와 코스닥 지수 변동 및 미국 증시 하락에 대한 보도입니다.</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -15957,7 +15957,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>국내 증시가 미국의 상호관세 유예 소식에 급등하며 삼성전자 등 주요 종목이 상승세를 보였다.</t>
+          <t>국내 증시가 미국의 상호관세 유예 소식에 급등세를 보이며 마감했다.</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -16017,7 +16017,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>미중 무역갈등으로 국내 증시 하락, 삼성전자 등 주요 주가 하락.</t>
+          <t>삼성전자 주식 하락과 관련된 기사로 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -16077,7 +16077,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>미중 무역갈등으로 인한 국내 증시 하락 소식.</t>
+          <t>국내 증시가 미·중 무역갈등으로 하락 출발했다는 개장 시황 기사입니다.</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -16129,7 +16129,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>기사 내용은 트럼프 대통령의 관세 정책과 원자재 시장에 관한 것으로 삼성전자와 관련이 없습니다.</t>
+          <t>이 기사는 삼성전자와 관련된 내용이 아니며, 주로 원자재 시장과 트럼프 대통령의 관세 정책에 대한 내용을 다루고 있습니다.</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -16181,7 +16181,7 @@
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr">
         <is>
-          <t>삼성전자 관련 언급은 있으나, 주 내용은 국내외 증시 동향 및 외국인 투자에 관한 것입니다.</t>
+          <t>삼성전자 관련 주식 시장 동향과 외국인 투자자들의 매수세에 관한 기사입니다.</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -16233,7 +16233,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>삼성전자 주가 하락을 포함한 시장 전반에 대한 애프터마켓 브리핑입니다.</t>
+          <t>미중 무역 갈등으로 인한 주식 시장 변동에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -16293,7 +16293,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>미중 관세 전쟁으로 인한 국내외 증시 변동성 확대 소식입니다.</t>
+          <t>미국과 중국의 관세 전쟁으로 인한 국내 증시 변동성 확대를 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -16353,7 +16353,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>삼성전자 주가가 미국의 관세 유예 소식으로 5.09% 상승했다.</t>
+          <t>삼성전자 주가 상승 관련 기사로, 삼성생명과 직접적 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -16362,7 +16362,7 @@
         </is>
       </c>
       <c r="L270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -16413,7 +16413,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>삼성물산은 건설 경기 침체로 인해 1분기 실적이 전년 대비 감소할 전망이다.</t>
+          <t>삼성물산의 1분기 영업이익과 매출이 전년 대비 감소할 것으로 예상됩니다.</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -16473,7 +16473,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>HDC현대산업개발과 포스코이앤씨가 용산정비창 전면1구역 재개발 수주전을 벌이고 있다.</t>
+          <t>삼성물산 리조트 부문이 용산정비창 전면1구역 재개발 프로젝트의 조경 계획에 참여합니다.</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -16482,7 +16482,7 @@
         </is>
       </c>
       <c r="L272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -16533,7 +16533,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>HDC현대산업개발과 포스코이앤씨가 용산정비창 전면1구역 재개발 사업을 두고 수주 경쟁을 벌이고 있다.</t>
+          <t>HDC현대산업개발과 포스코이앤씨가 용산정비창 전면1구역 재개발 사업 수주 경쟁을 벌이고 있다.</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -16593,7 +16593,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>삼성물산이 문래동4가 재개발 사업에 시공사 입찰 참여를 검토 중이다.</t>
+          <t>문래동4가 재개발 사업에 삼성물산 등 대형 건설사들이 참여를 검토 중이다.</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -16602,7 +16602,7 @@
         </is>
       </c>
       <c r="L274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -16653,7 +16653,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>삼성물산이 한국도로공사와 함께 튀르키예 고속도로 운영 유지관리에 참여합니다.</t>
+          <t>한국도로공사의 해외 도로 사업 수주와 관련된 내용으로 삼성물산과의 협력도 언급된다.</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -16662,7 +16662,7 @@
         </is>
       </c>
       <c r="L275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -16713,7 +16713,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>용인 푸르지오 원클러스터 2·3단지의 금융 혜택과 인프라 관련 소식입니다.</t>
+          <t>용인 푸르지오 원클러스터 2·3단지의 금융 혜택과 입지 조건에 대한 설명.</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -16773,7 +16773,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>삼성물산 등 한국 기업들이 베트남 원전 시장 진출을 위해 사업설명회를 개최했다.</t>
+          <t>삼성물산이 포함된 한국 원전 사업팀이 베트남 원전시장 진출을 위한 사업설명회를 개최했다.</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -16834,7 +16834,7 @@
         </is>
       </c>
       <c r="L278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -16885,7 +16885,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>금융위원회와 부산시가 금융·복지 복합지원 서비스 제공을 위한 업무협약을 체결했다.</t>
+          <t>금융위원회가 부산시와 금융·복지 복합지원 서비스 업무협약을 체결했다.</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -16945,7 +16945,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>우리금융그룹이 금융위와 함께 핀테크 기업의 글로벌 진출 지원을 위한 행사를 개최했다.</t>
+          <t>우리금융그룹이 핀테크 기업의 글로벌 진출 지원을 위한 네트워킹 행사를 개최했다.</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>우리금융그룹이 금융위와 핀테크 네트워킹 데이를 개최해 글로벌 진출 지원을 논의했다.</t>
+          <t>우리금융그룹과 금융위원회가 핀테크 기업의 해외 진출 지원을 위한 네트워킹 행사를 개최했다.</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -17065,7 +17065,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>금융위가 우리금융의 동양·ABL생명 인수 관련 논의를 연기했다.</t>
+          <t>우리금융지주의 동양·ABL생명보험 인수에 대한 금융위의 승인 논의가 연기되었다.</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -17185,7 +17185,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>정부가 부동산 시장 안정화를 위해 다양한 금융 및 세제 조치를 검토하고 있다.</t>
+          <t>정부와 서울시가 부동산 시장 안정화 방안을 논의하며 시장 교란 행위에 대한 점검을 강화하기로 했다.</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -17194,7 +17194,7 @@
         </is>
       </c>
       <c r="L284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -17245,7 +17245,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>금감원과 예금보험공사가 인터넷전문은행 비대면 거래 리스크 점검을 위해 공동검사를 추진한다.</t>
+          <t>금감원과 예보가 비대면 거래에 대한 금융 리스크를 점검하기 위해 공동검사를 추진한다.</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -17305,7 +17305,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>금감원이 신규 외부감사 대상 회사의 감사인 선임을 위한 온라인 설명회를 개최한다.</t>
+          <t>금융감독원이 신규 외부감사 대상 회사의 감사인 선임 제도를 안내하기 위해 온라인 설명회를 개최한다.</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -17314,7 +17314,7 @@
         </is>
       </c>
       <c r="L286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -17365,7 +17365,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>금감원이 삼성증권과 미래에셋증권의 캡티브 영업 관행에 대한 현장 검사를 실시한다.</t>
+          <t>금융감독원이 캡티브 영업 관행에 대해 삼성증권 등 증권사를 현장 검사한다.</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -17425,16 +17425,16 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>이복현 금감원장의 사퇴 소동과 정치적 의도 의혹이 제기되며 비판을 받고 있다.</t>
+          <t>이복현 금융감독원장의 사퇴 소동과 관련된 정치적 발언에 대한 논란을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -17485,7 +17485,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>다이닝브랜즈그룹의 영업이익이 11% 증가했으나 매출은 4% 감소했다.</t>
+          <t>다이닝브랜즈그룹㈜의 지난해 영업이익이 11% 증가했다.</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -17545,16 +17545,16 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>금융감독원이 MBK파트너스에 대한 징계 조치를 준비 중이며, 국회는 김병주 회장에게 사재 출연을 압박하고 있다.</t>
+          <t>MBK파트너스와 김병주 회장이 홈플러스 사태로 금융당국과 국회의 압박을 받고 있다.</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -17605,7 +17605,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>한화에어로스페이스의 유상증자와 지분 매입 관련 금감원의 경고와 승계 논란이 지속되고 있다.</t>
+          <t>금감원이 한화에어로스페이스의 유상증자와 관련하여 정정 요구 및 승계 논란에 대해 경고했다.</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -17665,7 +17665,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>거시경제·금융현안 간담회에서 가계부채 안정 관리 성과와 대응 계획을 논의했다.</t>
+          <t>금감원장 등이 참석한 F4 회의에서 가계부채 안정 관리 성과를 논의했다.</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -17717,7 +17717,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>기사 내용은 금감원장과 관련된 행사 참석 소식으로 삼성생명과 직접적 연관이 없습니다.</t>
+          <t>거시경제·금융현안 간담회에 주요 금융 인사들이 참석했다.</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -17769,7 +17769,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>금감원장을 포함한 주요 경제 인사들이 거시경제 및 금융 현안을 논의했다.</t>
+          <t>금감원 관련 회의에 대한 정보 전달 기사.</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -17838,7 +17838,7 @@
         </is>
       </c>
       <c r="L295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -17889,7 +17889,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>금감원이 한국투자증권과 신한투자증권의 회계 오류에 대해 심사에 착수했다.</t>
+          <t>한국투자증권과 신한투자증권의 회계 오류에 대해 금감원이 심사에 착수한 내용을 다루고 있습니다.</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -17898,7 +17898,7 @@
         </is>
       </c>
       <c r="L296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -17949,16 +17949,16 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>금감원이 홈플러스 사태와 관련해 MBK의 회생절차 준비 가능성을 조사 중이다.</t>
+          <t>홈플러스와 MBK 관련 사기 및 자본시장법 위반 혐의로 고소된 사건에 대한 내용입니다.</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -18009,7 +18009,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>정부가 금감원 등과 함께 서울 부동산 시장 동향을 점검하고 규제 조치를 예고했다.</t>
+          <t>정부가 서울 강남3구와 용산구의 집값 상승세 둔화를 평가하고 규제 조치를 예고했다.</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -18018,7 +18018,7 @@
         </is>
       </c>
       <c r="L298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -18069,16 +18069,16 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>금감원장 등 금융 수장들을 청문회에 세우는 것이 경제 리스크를 초래할 수 있다는 비판이 제기됨.</t>
+          <t>이재명 전 대표의 정치 행보와 관련된 비판 내용으로 삼성생명과 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -18129,16 +18129,16 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>금감원이 로펌 변호사의 주식 정보 유출 의혹을 조사하여 검찰에 수사 의뢰했습니다.</t>
+          <t>대형 로펌 직원들의 주식 정보 사전 입수 및 부당이득 혐의에 대한 검찰 수사 소식.</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -18189,16 +18189,16 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>금융 당국 청문회와 관련하여 정치적 갈등이 경제 리스크를 초래할 수 있다는 비판이 제기되었다.</t>
+          <t>금융 당국 청문회와 관련된 정치적 발언을 다루고 있는 기사입니다.</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -18249,7 +18249,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>금감원이 사모펀드의 부채 문제를 지적하며 규제 강화 가능성을 시사했다.</t>
+          <t>이 기사는 M&amp;A 시장과 사모펀드 관련 금융당국의 규제 강화에 대한 내용을 다루고 있습니다.</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -18258,7 +18258,7 @@
         </is>
       </c>
       <c r="L302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -18301,16 +18301,16 @@
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr">
         <is>
-          <t>금감원이 빗썸의 내부 통제 문제를 적발하고 검찰에 수사 의뢰한 사실이 드러났습니다.</t>
+          <t>기사의 내용은 삼성생명과 직접적인 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -18361,16 +18361,16 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>금감원 자료에 따르면 부동산 PF 부실로 금융권의 위험부담이 증가하고 있다.</t>
+          <t>금융감독원의 부동산 PF 부실 증가와 관련된 금융권 위험 부담 증가 기사.</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -18421,7 +18421,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>김병환 금융위원장이 벤처금융 문제 해결을 위해 미국 출장에 나선다.</t>
+          <t>김병환 금융위원장이 벤처금융 문제 해결을 위해 미국을 방문한다.</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -18481,7 +18481,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>금융위원회와 부산시가 금융·복지 복합지원을 위한 업무협약을 체결했다.</t>
+          <t>김병환 금융위원장과 박형준 부산시장이 금융·복지 복합지원 업무협약을 체결했다.</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -18541,7 +18541,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>김병환 금융위원장이 참석한 경제금융현안간담회에서 가계부채 관리와 시장 모니터링 강화가 논의되었다.</t>
+          <t>최상목 부총리와 관계기관이 시장 상황과 가계부채 관리에 대한 대응을 논의했다.</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -18550,7 +18550,7 @@
         </is>
       </c>
       <c r="L307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -18601,7 +18601,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>거시경제·금융현안 간담회 참석자들의 기념촬영을 다룬 기사입니다.</t>
+          <t>기사 내용은 금융 관련 인물 간담회에 대한 내용으로, 삼성생명과 직접적인 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -18661,16 +18661,16 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>김병환 금융위원장이 정치적 논란의 중심에 서며 비판을 받고 있다.</t>
+          <t>이재명 전 대표와 관련된 정치적 비판 기사로 삼성생명과는 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>김병환 금융위원장이 금융지원 확대를 요청하며 은행들의 건전성 관리 필요성을 강조했다.</t>
+          <t>금융당국과 은행들이 취약기업에 대한 금융지원을 확대하고 건전성 관리를 병행하려는 노력을 보고했다.</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -18730,7 +18730,7 @@
         </is>
       </c>
       <c r="L310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -18781,7 +18781,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>기사 내용은 거시경제와 금융 현안에 대한 정부의 대응책을 다루고 있습니다.</t>
+          <t>기사는 최상목 부총리의 경제 현안 대응 방안을 다루고 있습니다.</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -18841,7 +18841,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>거시경제·금융현안 간담회에서 가계부채 관리 성과와 지속적 리스크 관리 필요성이 논의됨.</t>
+          <t>거시경제·금융현안 간담회에서 국가 총부채 비율 감소와 경제 지속가능성 강조.</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -18901,7 +18901,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>김병환 금융위원장이 참석한 회의에서 금융시장 모니터링 강화가 논의되었다.</t>
+          <t>최상목 경제부총리가 금융시장 모니터링 강화를 지시했다.</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -18910,7 +18910,7 @@
         </is>
       </c>
       <c r="L313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -18961,7 +18961,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>이복현 금감원장이 자산운용업계의 무리한 보수 인하 경쟁에 경고를 날리며 제동을 걸었다.</t>
+          <t>이복현 금융감독원장이 자산운용업계의 보수 인하 경쟁에 경고를 보냈다.</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -19021,7 +19021,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>이복현 금감원장이 MBK파트너스와 홈플러스 관련 조사를 신속히 진행할 것이라고 밝혔다.</t>
+          <t>이복현 금감원장이 MBK파트너스 관련 홈플러스 신용등급 강등 사전 인지 정황을 확인하고 신속한 조치를 예고했다.</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -19081,7 +19081,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>이복현 금융감독원장이 상법 재의요구 절차 지연에 대한 비판을 제기했다.</t>
+          <t>이복현 금융감독원장이 상법 재의요구 절차 미루는 것은 헌법 취지에 어긋난다고 발언.</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -19141,7 +19141,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>이복현 금융감독원장이 상법 재의요구안 관련 민주당을 비판했다.</t>
+          <t>이복현 금융감독원장이 상법 재의요구안 표결 지연에 대한 민주당의 태도를 비판했다.</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -19201,7 +19201,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>이복현 금융감독원장이 한화에어로스페이스 유상증자에 대한 시장과 주주들의 평가 중요성을 언급했다.</t>
+          <t>한화에어로스페이스의 유상증자 관련 주가 변동과 금융감독원의 입장 발표.</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -19210,7 +19210,7 @@
         </is>
       </c>
       <c r="L318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -19261,7 +19261,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>이복현 금융감독원장이 불법 사금융 문제에 관심을 기울여야 한다고 언급했습니다.</t>
+          <t>가전 구독 서비스가 사기 범죄에 악용되는 사례와 금융 당국의 대응 방안을 다룬 기사.</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -19270,7 +19270,7 @@
         </is>
       </c>
       <c r="L319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -19321,16 +19321,16 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>이복현 금융감독 원장이 홈플러스 사태와 관련하여 MBK파트너스에 대한 조사를 진행 중이다.</t>
+          <t>홈플러스의 기업회생절차와 관련된 금융 및 법적 이슈를 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L320" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -19381,7 +19381,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>이 기사는 윤석열 정부의 인사 정책과 관련된 내용을 다루고 있습니다.</t>
+          <t>이 기사는 윤석열 대통령의 인사 정책에 대한 내용으로, 삼성생명과 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -19441,7 +19441,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>금융당국의 RWA 제도 개선이 은행지주 산하 IB의 인수금융 활성화에 기여할 것으로 기대된다.</t>
+          <t>금융위가 RWA 제도 개선을 통해 중소형 PEF 및 미들마켓 인수금융 활성화를 기대하고 있다.</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -19501,7 +19501,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>5대 금융지주의 1분기 실적 전망과 금융시장 불확실성에 대한 분석 기사.</t>
+          <t>5대 금융지주가 올해 1분기 준수한 실적을 예상하지만 금융시장 불확실성으로 자산 건전성 우려가 존재한다.</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -19561,7 +19561,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>iM금융그룹이 가수 싸이를 모델로 새로운 광고를 공개했다.</t>
+          <t>iM금융그룹이 가수 싸이를 모델로 한 새 광고를 통해 디지털 전환과 혁신을 강조했다.</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -19621,7 +19621,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>증권사들의 1분기 실적 전망에 대한 분석 기사로, 삼성생명과 직접 연관은 없음.</t>
+          <t>증권사들의 1분기 실적 전망과 관련된 기사로, 삼성생명과 직접적인 연관은 없습니다.</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>NH농협금융지주가 윤리 및 준법 경영 강화를 위한 전사 교육을 실시했다.</t>
+          <t>NH농협금융지주가 윤리·준법 경영 강화를 위한 교육을 실시하고 있다.</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -19741,7 +19741,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>국민연금이 금융지주를 포함한 다양한 업종의 주식 지분을 조정하며 투자 전략을 강화했다.</t>
+          <t>국민연금이 1분기 국내 주식시장에서 투자 종목을 확대하며 매수세를 강화했다.</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -19750,7 +19750,7 @@
         </is>
       </c>
       <c r="L327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -19801,7 +19801,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>미국과 중국의 관세 전쟁으로 코스피와 코스닥의 등락이 엇갈렸다.</t>
+          <t>미국과 중국의 관세 전쟁으로 인해 코스피와 코스닥 시장이 변동을 겪었다.</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -19861,7 +19861,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>은행권이 비금융 서비스 진입 규제 완화를 정치권에 요청하며 금융지주사 경쟁력 강화를 추진 중이다.</t>
+          <t>은행권이 비금융 서비스 진입 규제 완화를 정치권에 요청했다.</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -19870,7 +19870,7 @@
         </is>
       </c>
       <c r="L329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -19921,7 +19921,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>김연경 선수의 은퇴와 관련된 기사로 금융지주와 직접적인 연관은 없습니다.</t>
+          <t>김연경의 은퇴와 금융지주 CEO들의 연임 문제를 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>KB금융지주가 주주 소통 강화를 위해 1분기 실적 발표 전 사전 질문을 카톡 채널로 받는다.</t>
+          <t>KB금융지주가 실적 발표 앞두고 주주와의 소통 강화를 위해 카카오톡 채널을 통한 사전 질문을 받는다.</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -19990,7 +19990,7 @@
         </is>
       </c>
       <c r="L331" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -20041,12 +20041,12 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>한국투자증권이 뱅키스 중개형 ISA 이벤트를 통해 다양한 혜택을 제공한다.</t>
+          <t>한국투자증권의 뱅키스 중개형 ISA 이벤트 관련 기사입니다.</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L332" t="b">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>카카오뱅크가 태국 디지털은행 진출을 위해 현지 인력 채용 및 기술 개발을 준비 중이다.</t>
+          <t>카카오뱅크의 태국 디지털은행 진출 계획과 관련된 내용입니다.</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -20161,7 +20161,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>메리츠증권의 IPO 강화와 전통 IB 사업 확장에 관한 기사입니다.</t>
+          <t>메리츠증권이 기업금융 강화와 IPO 분야 확장을 위해 핵심 인력을 영입했다.</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -20221,7 +20221,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>우리은행이 알뜰폰 서비스 '우리WON모바일'을 통해 비이자이익 확대를 모색합니다.</t>
+          <t>우리은행의 알뜰폰 서비스 시작과 관련된 기사로 삼성생명과 직접적 연관은 없습니다.</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -20281,12 +20281,12 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>김홍범 유경PSG자산운용 CIO가 국내 증시와 은행주 투자 전략을 설명했다.</t>
+          <t>유경PSG자산운용의 김홍범 CIO가 한국 증시와 투자 전략에 대해 논의한 기사입니다.</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L336" t="b">
@@ -20341,7 +20341,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>한국투자증권과 한국타이어 등이 고려아연 지분을 전량 처분하여 지분 관계를 정리했다.</t>
+          <t>고려아연의 주식 매각과 관련된 여러 기업의 지분 변동 사항을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -20393,12 +20393,12 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr">
         <is>
-          <t>기사는 증시와 조선업 관련 내용으로 삼성생명과 직접적 연관은 없습니다.</t>
+          <t>이 기사는 삼성생명과 관련이 없으며, 금융지주에 대한 직접적인 언급도 없습니다.</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L338" t="b">
@@ -20453,7 +20453,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>우리금융지주의 보험사 인수가 금융위의 결론 지연으로 불확실성이 지속되고 있다.</t>
+          <t>우리금융지주의 보험사 인수 관련 금융위 결정이 지연되고 있다.</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -20505,7 +20505,7 @@
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr">
         <is>
-          <t>JB금융지주가 AI 기술 활용을 위한 공동 거버넌스를 BNK·iM금융지주와 추진한다.</t>
+          <t>JB금융지주가 AI 기술 활용을 위한 공동 AI 거버넌스를 BNK·iM금융지주와 추진한다.</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">

--- a/prompt_test/data/cnews_20250411_summary.xlsx
+++ b/prompt_test/data/cnews_20250411_summary.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>강정구 삼성증권 수석이 은퇴를 앞두고 회사를 떠난다는 소식이 전해졌다.</t>
+          <t>삼성증권의 고액 연봉자인 강정구 수석이 은퇴를 앞두고 회사를 떠난다는 소식입니다.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>삼성전자와 관련된 주식 동향 및 외국인 매도 흐름에 대한 기사입니다.</t>
+          <t>삼성전자와 관련한 외국인 매도 및 주가 변동에 대한 주간 증시 동향을 다룬 기사.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>충북 괴산농협이 생명보험 분야에서 3년 연속 대상을 수상하며 우수한 성과를 거두었다.</t>
+          <t>NH농협생명이 생명보험 분야에서 3년 연속 대상을 수상하며 농협의 위상을 입증했다.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>우리금융의 동양·ABL생명보험 인수 관련 금융당국의 승인 논의가 지연되고 있다.</t>
+          <t>우리금융의 동양·ABL생명보험 인수 관련 금융위 심사 지연에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>교보생명이 가족친화적 기업문화를 통해 저출생 위기 극복에 동참하고 있다.</t>
+          <t>교보생명이 저출생 위기 극복을 위한 가족친화적 기업문화 확산에 참여하고 있다.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>한화손해보험이 자회사 캐롯손해보험의 흡수합병을 검토하며 자동차보험 시장에서의 입지를 강화하고 있다.</t>
+          <t>한화손해보험이 캐롯손해보험을 흡수합병 검토 중이며, 자동차보험 시장 점유율 확대를 기대하고 있다.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>MG손해보험의 부실 계약 문제와 감액 이전 논의가 보험업계에서 이루어지고 있다.</t>
+          <t>MG손해보험의 부실 계약 문제와 관련하여 보험업계가 감액 이전을 대안으로 검토 중이다.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>NH농협생명 연도대상 시상식에서 대전농협이 여러 부문에서 수상했다.</t>
+          <t>농협 대전지역본부가 NH농협생명 연도대상 시상식에서 수상한 소식을 전함.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>현대캐피탈의 자동차 금융 상품과 서비스에 대한 소개 기사입니다.</t>
+          <t>현대캐피탈의 다양한 자동차 금융 상품과 서비스에 대한 소개 기사입니다.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>미래에셋증권의 IMA 업무 준비와 관련된 기사로 삼성생명과는 관련이 없습니다.</t>
+          <t>미래에셋증권이 초대형 투자은행 IMA 허가 준비 중이며, 계열사 부당지원 등이 변수로 작용할 가능성이 있다.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>우리금융의 동양·ABL생명보험 인수 관련 금융위 논의가 결론 없이 재논의 예정.</t>
+          <t>우리금융의 동양·ABL생명보험 인수 관련 논의가 금융위에서 결론을 내지 못하고 재논의될 예정이다.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1233,7 +1233,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>NH농협생명이 신상품 출시와 쌀 소비 촉진 캠페인에 참여했다.</t>
+          <t>NH농협생명이 간병보험 신상품 출시와 쌀 소비 촉진 캠페인에 참여했다.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>외국계 보험사들의 자산운용 수익률이 높은 이유와 업계 동향을 분석한 기사입니다.</t>
+          <t>외국계 보험사들이 높은 자산운용 수익률을 기록하며 보험업계 실적을 견인했다.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DB손해보험이 산불 피해 주민을 위한 긴급 구호물품을 전달했다.</t>
+          <t>DB손해보험이 산불 피해 주민들을 위한 구호물품을 전달하고 보험료 납입 유예 등의 지원을 제공한다.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DB손해보험이 산불 피해 주민들을 위한 구호물품을 전달했다.</t>
+          <t>DB손해보험이 산불 피해 주민들을 위한 긴급 구호 물품을 전달했다.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>롯데손해보험이 나만의닥터와 제휴해 보험설계사로 활동할 수 있는 기회를 제공한다.</t>
+          <t>롯데손해보험이 비대면 진료 플랫폼 '나만의닥터'와 제휴해 보험설계사로 활동할 기회를 제공한다.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>발달 지연 아동의 실손보험 청구 관련 문제와 시스템 개선 필요성을 다룬 기사.</t>
+          <t>발달 지연 아동의 실손보험 갈등과 시스템 문제를 분석하고 해결책을 제시하는 기사입니다.</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1585,7 +1585,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>무·저해지 보험의 보험료가 인상되면서 손해보험사들의 부담이 커졌다.</t>
+          <t>손해보험사의 무·저해지 보험료가 최대 33% 인상되었다.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>외국계 보험사들의 자산운용 수익률이 높은 이유를 설명한 기사입니다.</t>
+          <t>외국계 보험사들이 강달러에 힘입어 높은 자산운용 수익률을 기록했다.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>롯데손해보험의 영업지원 플랫폼 '원더'와 비대면 진료 플랫폼 '나만의닥터' 업무제휴 소식.</t>
+          <t>롯데손해보험이 비대면 진료 플랫폼 '나만의닥터'와 업무제휴를 통해 N잡 설계사 지원을 강화한다.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DB손해보험이 산불 피해 주민을 위한 구호물품을 전달했다.</t>
+          <t>DB손해보험이 산불 피해 주민들을 위한 구호물품을 전달하고 금융지원을 실시했다.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DB손해보험은 영남지역 산불 피해 이재민을 위한 긴급 구호물품을 전달했다.</t>
+          <t>DB손해보험이 영남지역 산불 피해 이재민을 위해 구호물품을 전달하고 금융지원을 실시했다.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DB손해보험과 십일리터의 협업으로 펫보험 서비스가 강화되고 있다.</t>
+          <t>DB손보와 십일리터가 협업하여 반려동물 홈케어 및 보험 서비스를 강화하고 있다.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1937,16 +1937,16 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>실손보험의 남용과 손해율 악화로 인한 문제를 해결하기 위한 개혁 방안이 발표되었다.</t>
+          <t>실손보험의 역사와 개혁 필요성에 대한 논의가 이루어졌다.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>무·저해지 보험의 보험료 인상으로 소비자 부담이 증가할 전망이다.</t>
+          <t>금융당국의 무·저해지 보험 해지율 가이드라인으로 보험료가 인상되어 소비자 부담이 증가하고 있다.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>삼성화재가 고객 소통과 안전한 교통문화 확산을 위해 퀴즈 이벤트를 진행한다.</t>
+          <t>삼성화재가 고객 소통과 교통문화 확산을 위한 참여형 퀴즈 이벤트를 진행한다.</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>삼성디스플레이가 성과급 제도 개선을 위해 노사 공동 TF를 구성했다.</t>
+          <t>삼성디스플레이가 성과급 제도 개선을 위해 노사공동 TF를 구성하여 논의 중이다.</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>삼성화재 부사장을 지낸 저자가 쓴 책 소개 기사로, 회사와 직접적 연관은 없음.</t>
+          <t>책 '미세공격 주의보'는 직장 내 미세공격 문제를 다루며 해결 방안을 제시한다.</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>책 소개 기사로 삼성화재와 직접적인 연관이 없습니다.</t>
+          <t>기사 내용을 반영한 한 문장 요약 (100자 이내)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>국내 독립 보험대리점 브랜드평판 순위 발표, 인카금융서비스가 1위.</t>
+          <t>국내 독립 보험대리점 브랜드평판 순위 발표, 인카금융서비스 1위, 한화생명금융서비스 2위.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>주요 대기업들의 배당 감소와 관련된 업계 현황을 다룬 기사입니다.</t>
+          <t>주요 대기업들의 배당 감소와 경영 여건에 대한 분석 기사입니다.</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>한화생명 볼파크에서 시구·시타 아르바이트를 모집하는 기사입니다.</t>
+          <t>한화생명 볼파크에서 시구·시타 아르바이트 모집 공고가 발표되었다.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L34" t="b">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>대전 중구청의 행정 혁신과 주민 참여 확대에 대한 기사입니다.</t>
+          <t>대전 중구청이 주민 참여를 통한 행정 혁신을 추진하고 있다.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>한화그룹과 신세계그룹의 동일인 변경 가능성에 대한 공정위의 판단이 주목된다.</t>
+          <t>한화그룹과 신세계그룹의 동일인 변경 가능성에 대해 공정위의 결정이 주목받고 있다.</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>한국신용데이터의 매출 성장과 서비스 혁신에 대한 기사로, 삼성생명과 직접적인 관련은 없습니다.</t>
+          <t>한국신용데이터의 매출 성장과 투자 유치 및 서비스 혁신에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>교보생명과 관련된 풋옵션 분쟁이 장기화될 조짐을 보이고 있다.</t>
+          <t>교보생명 풋옵션 분쟁이 장기화될 조짐을 보이며 법적 다툼이 예상된다.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>교보생명 신창재 회장과 PEF 간의 풋옵션 분쟁으로 막대한 법률 비용이 소요되고 있다.</t>
+          <t>교보생명과 사모펀드 간의 풋옵션 분쟁으로 막대한 법률 비용이 발생하고 있다.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>금융지주사의 핀테크 출자 제한을 완화하는 법령 개정안이 입법 예고될 예정이다.</t>
+          <t>금융지주사의 핀테크 출자 제한 완화에 대한 법령 개정안이 입법 예고될 예정이다.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>글로벌 사모펀드 어피니티에 대한 국세청의 세무조사로 업계 긴장도가 높아지고 있다.</t>
+          <t>국세청이 어피니티에쿼티파트너스를 세무조사하면서 사모펀드 업계가 긴장하고 있다.</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2889,7 +2889,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>MDRT 관련 행사 및 회원 증가에 대한 내용으로 삼성생명과 직접적인 관련이 없습니다.</t>
+          <t>MDRT 행사에 대한 내용으로, 삼성생명과 직접적인 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>하나은행의 리딩뱅크 탈환 전략과 영업력 강화 계획에 대한 기사입니다.</t>
+          <t>하나은행이 리딩뱅크 탈환을 목표로 영업력 강화를 추진하고 있다.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>SK하이닉스가 삼성전자를 제치고 D램 시장 점유율 1위를 기록했다.</t>
+          <t>SK하이닉스가 삼성전자를 제치고 글로벌 D램 시장 점유율 1위를 달성했다.</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>이재용 회장의 외부 인재 영입 전략과 삼성전자의 조직문화 혁신 필요성에 대한 기사입니다.</t>
+          <t>삼성전자가 외부 인재 영입을 통해 조직문화 혁신과 소비자 경험 중심 전환을 시도하고 있다.</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="L46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>이재용 삼성전자 회장의 해외 출장 및 글로벌 경영 행보에 대한 기사입니다.</t>
+          <t>이재용 삼성전자 회장이 일본 출장 후 귀국하며 글로벌 경영 행보를 이어가고 있다.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="L47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -3241,7 +3241,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>이재용 삼성전자 회장이 중국발전고위급포럼에 참석해 시진핑 주석과 회동했다.</t>
+          <t>이재용 삼성전자 회장이 중국발전고위급포럼에 참석해 시진핑 주석과 회동하며 중국과의 협력을 논의했다.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="L48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>철원플라즈마산업기술연구원과 강원대가 지역산업 발전을 위한 협약을 체결했다.</t>
+          <t>철원플라즈마산업기술연구원과 강원대 KNU창업혁신원이 지역산업 인재양성을 위한 협약을 체결했다.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>이 기사는 억만장자 명단과 관련된 내용으로, 삼성생명과 직접적인 관련이 없습니다.</t>
+          <t>포브스가 발표한 억만장자 명단에서 이재용 삼성전자 회장이 369위에 올랐다.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3413,7 +3413,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>윤석열 전 대통령과 김건희 여사에 대한 비판과 정치적 상황을 다룬 기사입니다.</t>
+          <t>윤석열 대통령과 김건희 여사의 국정 운영 및 탄핵에 관한 비판을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>크래프톤과 엔비디아가 AI 및 로보틱스 분야 협력을 논의했다.</t>
+          <t>크래프톤과 엔비디아가 AI 및 로보틱스 분야 협력 방안을 논의했다.</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>이재용 삼성전자 회장이 세계 자산가 순위에서 국내 3위에 올랐다는 내용이 포함된 기사입니다.</t>
+          <t>여러 CEO의 최근 동향과 기업 관련 이슈를 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>엔비디아가 삼성전자를 제치고 반도체 매출 1위에 올랐다는 소식.</t>
+          <t>삼성전자는 2023년 반도체 매출에서 2위 자리를 유지하며 60.8% 성장했다.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="L54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>삼성전자 DX부문장 직무대행 노태문 사장이 임직원들에게 변화와 민첩성을 강조했다.</t>
+          <t>노태문 삼성전자 DX부문장 직무대행이 임직원들에게 변화와 효율성을 강조하는 메시지를 전달했다.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="L55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>삼성전자가 반도체 연구개발직 특별 연장 근로 기간 확대의 첫 적용 대상이 되었다.</t>
+          <t>삼성전자가 반도체 연구개발직의 특별 연장 근로를 고용부로부터 인가받아 주 최대 64시간 근무가 가능해졌다.</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="L56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>삼성전자 주가와 관세 이슈 관련 기사로, 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>삼성전자가 1분기 실적을 웃돌았으나 외국인 투자자들의 매도세가 지속되고 있으며, 관세 우려가 영향을 미치고 있다.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="L57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>삼성전자가 AI 기반 가정용 로봇 '볼리'를 구글 제미나이 탑재로 성능을 향상시켜 출시할 예정이다.</t>
+          <t>삼성전자가 AI 기반 로봇 '볼리'를 구글과 협력하여 성능을 향상시켜 여름에 출시할 예정이다.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>노태문 삼성전자 DX부문장 직무대행이 조직 문화를 효율적으로 개선할 것을 당부했다.</t>
+          <t>노태문 삼성전자 DX부문장 직무대행이 조직 문화 혁신과 미래 경쟁력 확보를 강조했다.</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="L59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>삼성전자가 HBM 기술 격차를 좁히기 위해 인력 전환 배치 및 연구개발을 강화하고 있다.</t>
+          <t>삼성전자가 반도체 경쟁력 강화를 위해 HBM 기술 개발에 집중하고 있다.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="L60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -4073,16 +4073,16 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>삼성전자와 SK하이닉스의 주가가 관세 전쟁 우려로 하락세를 보이고 있다.</t>
+          <t>삼성전자와 SK하이닉스가 미·중 관세전쟁 우려로 인해 주가 하락과 변동성을 겪고 있다.</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="L62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>미중 무역전쟁 우려로 인해 코스피와 주요 업종이 하락세를 보이고 있다.</t>
+          <t>미중 무역전쟁 우려로 코스피 하락, 삼성전자 등 전기전자 업종 주가 2% 하락.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="L63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>삼성전자와 구글의 협력 강화에 대한 기사로, 삼성생명과 직접적인 연관은 없습니다.</t>
+          <t>삼성전자와 구글이 AI 시대를 맞아 스마트 안경 등 다양한 분야에서 협력을 강화하고 있다.</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="L64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>SK하이닉스의 1분기 실적이 삼성전자를 넘어설 가능성이 제기되고 있다.</t>
+          <t>SK하이닉스가 1분기 실적에서 삼성전자를 넘어설 가능성이 주목받고 있다.</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4313,16 +4313,16 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>삼성전자 주식 관련 기사로, 삼성생명과 관련이 없습니다.</t>
+          <t>삼성전자 주가가 미국 반도체주 급락 영향으로 하락세를 보이고 있으나 관세 영향은 제한적이다.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>삼성전자 주가 하락 관련 기사로, 삼성생명과 직접적 연관이 없습니다.</t>
+          <t>삼성전자를 포함한 반도체주와 2차전지주가 관세 불안과 차익실현 매물로 하락 마감했다.</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="L67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>삼성전자와 SK하이닉스의 주가가 미국 반도체 관세 우려로 하락했다.</t>
+          <t>삼성전자와 SK하이닉스 주가가 미국 반도체주 하락 영향으로 동반 하락했으나 관세 영향은 제한적일 것으로 예상됨.</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="L68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -4493,16 +4493,16 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>미중 무역갈등으로 삼성전자와 SK하이닉스의 주가가 하락세를 보이고 있다.</t>
+          <t>미중 무역갈등 격화로 삼성전자가 프리마켓에서 하락세를 보이고 있습니다.</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="L69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -4553,16 +4553,16 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>삼성전자와 LG전자가 인도 전자폐기물 정책에 따른 재활용 비용 증가로 수익성 악화를 우려하고 있다.</t>
+          <t>인도의 전자폐기물 정책으로 삼성전자 등 글로벌 가전사들의 재활용 비용이 급증하며 수익성에 타격이 예상된다.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="L70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -4605,16 +4605,16 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>삼성전자 디자이너가 K-디자인 어워드 심사위원으로 위촉되었다는 내용의 기사입니다.</t>
+          <t>삼성전자 고성찬 디자이너가 K-디자인 어워드 2025 심사위원으로 위촉되었다.</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="L71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>삼성전자 출신 인물들이 사모펀드 업계에서 활약하고 있는 사례를 소개하는 기사입니다.</t>
+          <t>삼성전자 출신 인물들이 사모펀드 업계에서 활약하는 사례를 소개한 기사.</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>삼성전자와 LG전자의 주가 변동이 미국 관세 정책에 영향을 받고 있다는 내용의 기사입니다.</t>
+          <t>삼성전자가 양호한 실적에도 불구하고 미국 관세 정책 불확실성으로 주가 변동성을 보이고 있다.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4734,7 +4734,7 @@
         </is>
       </c>
       <c r="L73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -4777,7 +4777,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>삼성전자가 인도네시아 TKDN 규정을 충족하며 현지 생산 비율을 높이고 있다.</t>
+          <t>삼성전자가 인도네시아 TKDN 규정을 준수하며 현지 생산 비율을 높이고 있다.</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>삼성전자가 평택캠퍼스의 반도체 라인 건설 재개를 검토 중이라는 내용의 기사입니다.</t>
+          <t>삼성전자가 평택캠퍼스 P4라인의 D램 및 파운드리 복합 공간 건설 재개를 검토하고 있다.</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="L75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>엔비디아가 삼성전자를 제치고 반도체 시장 매출 1위를 차지했다.</t>
+          <t>엔비디아가 삼성전자를 제치고 반도체 시장 매출 1위를 기록했다.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="L77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>엔비디아와 SK하이닉스의 AI 반도체 시장에서의 성과와 삼성전자의 도전 과제를 다룬 기사입니다.</t>
+          <t>삼성전자가 AI 반도체 시장에서 경쟁력을 확보하기 위해 HBM 성과가 절실하다는 평가를 받고 있다.</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="L78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -5077,7 +5077,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>SK하이닉스가 TSMC 및 엔비디아와 협력하여 HBM4 개발 및 AI 반도체 시장에서의 주도권을 강화하고 있다.</t>
+          <t>SK하이닉스가 TSMC 및 엔비디아와 협력하여 HBM4 개발에 주력하고 있다.</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5129,7 +5129,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>관련 기사가 없습니다.</t>
+          <t>엔비디아가 삼성전자를 제치고 글로벌 반도체 매출 1위를 차지했다.</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="L80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>트럼프 대통령의 관세 유예 조치로 삼성전자가 생산지 다변화를 통해 숨통을 트일 가능성이 제기된다.</t>
+          <t>트럼프의 관세 유예로 삼성전자가 생산 전략을 다변화할 기회를 얻었다.</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="L81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>엔비디아가 삼성전자와 인텔을 제치고 반도체 시장 1위를 차지했다.</t>
+          <t>엔비디아가 AI 칩 수요 증가로 삼성전자를 제치고 세계 최대 반도체 기업으로 등극했다.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5258,7 +5258,7 @@
         </is>
       </c>
       <c r="L82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>코스피와 코스닥의 혼조세로 인한 주가 변동과 관련된 기사입니다.</t>
+          <t>국내 증시와 환율 변동에 대한 종합적인 보도입니다.</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5369,12 +5369,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>삼성전자가 '오닉스'라는 새로운 시네마 LED 스크린을 공개했다.</t>
+          <t>삼성전자의 시네마 LED 스크린 '오닉스' 신제품 소개</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L84" t="b">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>방송통신위원회와 한국인터넷진흥원이 앱 마켓 실태조사 결과를 발표했다.</t>
+          <t>방통위와 KISA는 삼성전자 갤럭시스토어를 포함한 앱 마켓의 실태조사 결과를 발표했다.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5438,7 +5438,7 @@
         </is>
       </c>
       <c r="L85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>미국 증시 급락으로 코스피와 코스닥 지수가 하락하며 삼성전자를 포함한 주요 종목이 약세를 보였다.</t>
+          <t>미국 증시 급락 영향으로 코스피가 하락하며 삼성전자가 약세를 보였다.</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="L86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>SK실트론 매각 관련 기사로 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>SK실트론 매각 관련 사모펀드 관심과 인수 후보로 한앤코 부상에 대한 기사.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>삼성전자의 차세대 스마트폰 운영체제 원UI 8 개발 관련 소식.</t>
+          <t>삼성전자가 원UI 8을 갤럭시S25에 탑재해 테스트 중이라는 보도.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>오준호 삼성전자 미래로봇추진단장이 휴머노이드 산업 동향을 진단하며 기술 표준화의 필요성을 강조했다.</t>
+          <t>오준호 삼성전자 미래로봇추진단장이 휴머노이드 산업의 표준화 필요성을 강조했다.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5678,7 +5678,7 @@
         </is>
       </c>
       <c r="L89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>에이치티씨가 삼성전자 등 대기업과 협력하며 코스닥 상장을 준비 중이다.</t>
+          <t>에이치티씨가 삼성전자 등을 고객사로 확보하고 코스닥 상장을 추진 중이다.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5789,16 +5789,16 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>삼성전자가 퀄컴과 협력하여 XR 헤드셋용 칩을 4나노 공정으로 생산 중이다.</t>
+          <t>삼성전자가 퀄컴과 협력하여 XR 헤드셋용 칩을 4나노 공정으로 생산하며 파운드리 사업의 성장 모멘텀을 확보하고 있다.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="L91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>삼성전자와 LG전자의 1분기 실적 및 AI TV 기술에 대한 기사입니다.</t>
+          <t>삼성전자가 1분기 매출 79조 원을 기록했으나 D램 시장에서 SK하이닉스에 뒤쳐졌습니다.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="L92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -5909,16 +5909,16 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>트럼프가 엔비디아의 중국 수출 규제를 철회하여 국내 메모리 기업들이 수혜를 입을 전망이다.</t>
+          <t>미국의 수출 규제 철회로 삼성전자의 HBM3 공급이 지속 가능해져 수혜가 예상된다.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="L93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -5969,16 +5969,16 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>삼성전자 스마트폰이 관세 유예 조치로 피해를 피했다는 내용의 기사입니다.</t>
+          <t>삼성전자가 트럼프 대통령의 관세 유예 조치로 관세 리스크를 피하게 되었습니다.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="L94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>한화에어로스페이스의 유상증자 및 주가 변동에 관한 기사입니다.</t>
+          <t>한화에어로스페이스의 유상증자 계획 변경과 주가 상승에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>삼성전자의 갤럭시S26 울트라에 UDC 기술 도입이 어려울 것이라는 전망이 나왔다.</t>
+          <t>삼성전자가 갤럭시S26 울트라에 UDC 기술을 도입하지 않을 가능성이 있다는 전망이 나왔다.</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6098,7 +6098,7 @@
         </is>
       </c>
       <c r="L96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>미국 반도체주 급락으로 삼성전자와 SK하이닉스 등 국내 반도체 종목들이 약세를 보이고 있다.</t>
+          <t>삼성전자와 SK하이닉스의 주가가 미국 반도체주 급락 영향으로 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6158,7 +6158,7 @@
         </is>
       </c>
       <c r="L97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -6201,7 +6201,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>미국과 중국의 관세 전쟁 및 경제 상황에 대한 전문가 대담 내용.</t>
+          <t>삼성전자와 관련된 직접적인 내용은 포함되어 있지 않음.</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6253,16 +6253,16 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>삼성전자의 스마트폰 생산 및 관세 문제에 관한 기사로, 삼성생명과 직접적인 연관성이 없습니다.</t>
+          <t>삼성전자는 트럼프 행정부의 상호관세 정책으로 인해 스마트폰 생산 및 가격에 어려움을 겪고 있다.</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="L99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>미국의 상호관세 유예 결정에 따른 국내 산업계의 대응 방안 논의.</t>
+          <t>삼성전자는 미국 관세 정책에 대응하기 위해 생산지 재조정과 현지 생산 확대를 고려하고 있다.</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="L100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>중소벤처기업부가 팹리스 스타트업 지원을 위한 2025년 팹리스 챌린지를 공고했다.</t>
+          <t>중소벤처기업부가 팹리스 스타트업 지원 프로그램을 발표했다.</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>삼성전자 출신 서영진이 산업부 국가표준원 국장으로 임명되었다.</t>
+          <t>삼성전자 출신 서영진이 산업부 기술규제대응국장으로 임명되었다.</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -6493,12 +6493,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>관련된 삼성생명 또는 삼성전자 주제의 기사가 아닙니다.</t>
+          <t>해당 기사는 삼성전자와 관련된 내용이 없으며, SK하이닉스의 D램 시장 1위 소식을 다루고 있습니다.</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L103" t="b">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>삼성전자가 갤럭시 폴드·Z플립7 시리즈의 양산을 시작하며 엑시노스 2500 탑재 여부에 관심이 집중되고 있다.</t>
+          <t>삼성전자가 갤럭시 폴드·Z플립7 시리즈의 양산을 시작하며 엑시노스 2500 탑재를 검토 중이다.</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>미국과 국내 주식시장에서 큰 변동성이 발생하며 투자자들이 어려움을 겪고 있다.</t>
+          <t>미국 관세 정책 변화로 삼성전자 주가가 변동하며 투자자들이 현기증을 호소하고 있다.</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="L105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>삼성전자 MX사업부의 리더십 재편과 관련된 기사입니다.</t>
+          <t>삼성전자가 MX사업부 COO로 최원준 사장을 임명하며 리더십 재편을 통해 위기 상황을 극복하려 하고 있다.</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="L106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>삼성전자와 SK하이닉스 중심으로 개인 투자자들이 주식을 매수했다.</t>
+          <t>개인 투자자들이 삼성전자와 SK하이닉스를 중심으로 주식을 매수하며 CMA 잔고가 감소했다.</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="L107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>코스피 지수 하락과 관련된 기사로 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>코스피 지수가 2400선 아래로 하락하며 주요 종목들이 일제히 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>서울대 민상렬 교수의 SSD 연구가 삼성전자와 SK하이닉스의 혁신에 기여했다는 내용의 기사입니다.</t>
+          <t>민상렬 교수의 연구가 삼성전자의 SSD 혁신에 기여한 내용을 다룬 기사.</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6913,7 +6913,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>SK그룹의 로봇 사업 확장과 관련된 내용으로 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>SK그룹의 유일로보틱스 투자와 관련하여 로봇 사업 확장 가능성을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>펩트론과 코스닥 지수 상승 등 주식 시장 동향을 다룬 기사입니다.</t>
+          <t>국내 증시에서 펩트론 등 코스닥 종목이 강세를 보이며 상승세를 기록하고 있다.</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>AI 인프라 투자로 글로벌 반도체 매출이 증가하며 엔비디아가 1위에 올랐다.</t>
+          <t>삼성전자가 2024년 반도체 매출 증가로 글로벌 시장 2위를 유지했다.</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="L112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -7093,7 +7093,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>삼성전자와 애플이 미국 관세를 피하기 위해 생산기지 이전을 검토 중이다.</t>
+          <t>삼성전자가 미국 관세 회피를 위해 스마트폰 생산 기지를 브라질로 옮기는 방안을 검토 중이다.</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="L113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -7145,12 +7145,12 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>삼성전자의 가정용 에어컨 판매량 증가 소식.</t>
+          <t>삼성전자의 에어컨 판매량 증가 소식</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L114" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>삼성전자 노사가 성과급 제도 개선을 위한 TF 첫 회의를 개최했습니다.</t>
+          <t>삼성전자 노사가 성과급 제도 개선을 위한 TF 첫 회의를 개최하고 개선안을 논의 중입니다.</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="L115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>삼성전자와 구글의 AI 파트너십 확대로 가정용 로봇 '볼리'에 생성형 AI 모델 '제미나이'가 탑재된다.</t>
+          <t>삼성전자가 구글과 협력하여 AI 가정용 로봇 '볼리'에 생성형 AI를 탑재해 출시할 예정이다.</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -7325,16 +7325,16 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>미국 반도체주 하락으로 삼성전자와 SK하이닉스 주가도 약세를 보였다.</t>
+          <t>미국 반도체주 하락 여파로 삼성전자와 SK하이닉스 주가가 약세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="L117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>인도 정부가 전자 폐기물 재활용 비용 규제에 대해 삼성전자와 LG전자가 반발하고 있다.</t>
+          <t>삼성전자가 인도 정부의 전자 폐기물 처리 비용 규제에 대해 정부 개입을 자제해달라고 요청했다.</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -7394,7 +7394,7 @@
         </is>
       </c>
       <c r="L118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>노태문 삼성전자 DX부문장 직무대행이 조직 문화 혁신과 미래 기술 확보를 강조했다.</t>
+          <t>노태문 삼성전자 DX부문장 직무대행이 효율적 조직 문화와 미래 경쟁력 확보를 강조했다.</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -7497,7 +7497,7 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>엔비디아가 삼성전자를 제치고 글로벌 반도체 매출 1위를 기록했다는 기사.</t>
+          <t>엔비디아가 삼성전자를 제치고 글로벌 반도체 매출 1위를 차지했다.</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="L120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -7557,12 +7557,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>삼성전자 노태문 신임 DX부문장 직무대행 관련 기사로 삼성생명과 무관함.</t>
+          <t>노태문 삼성전자 DX부문장 직무대행이 조직 문화 혁신과 미래 경쟁력 확보를 강조했다.</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L121" t="b">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>글로벌 반도체 시장에서 엔비디아가 삼성전자를 제치고 매출 1위를 기록했다.</t>
+          <t>삼성전자는 AI 중심 시장 재편으로 2024년 반도체 매출 2위를 기록했으나 1위 자리를 엔비디아에 내주었습니다.</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -7626,7 +7626,7 @@
         </is>
       </c>
       <c r="L122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>삼성전자 DX부문의 노태문 직무대행이 리더십 공백 해소와 조직 재정비를 강조했다.</t>
+          <t>노태문 삼성전자 DX부문장 직무대행이 조직 재정비와 글로벌 위기 대응을 강조했다.</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -7686,7 +7686,7 @@
         </is>
       </c>
       <c r="L123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>삼성전자와 LG전자의 에어컨 판매량이 전년 대비 크게 증가했다.</t>
+          <t>삼성전자와 LG전자의 1분기 에어컨 판매량이 전년 대비 50% 이상 증가했다.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>삼성전자 DX부문장 직무대행이 '원 삼성' 모토 아래 조직 문화 개선과 신기술 접목을 강조했다.</t>
+          <t>삼성전자 DX부문장 노태문 사장이 조직 문화 혁신과 미래 기술 확보를 강조했다.</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>엔비디아가 삼성전자와 인텔을 제치고 반도체 매출 1위를 기록했다.</t>
+          <t>삼성전자가 엔비디아에 이어 반도체 매출 2위를 기록하며 시장 점유율 10%를 차지했다.</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -7866,7 +7866,7 @@
         </is>
       </c>
       <c r="L126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>글로벌 반도체 시장에서 삼성전자와 SK하이닉스의 매출 순위 상승.</t>
+          <t>삼성전자가 반도체 매출에서 엔비디아에 이어 2위에 올랐다.</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -7926,7 +7926,7 @@
         </is>
       </c>
       <c r="L127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>삼성전자 DX부문장 직무대행 노태문이 임직원들에게 유연하고 민첩한 실행을 강조했다.</t>
+          <t>노태문 삼성전자 DX부문장 직무대행이 임직원들에게 변화와 효율적 조직문화를 강조했다.</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="L128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>방송통신위원회가 2024년 앱 마켓 실태조사 결과를 발표하여 앱 개발자들의 불공정 사례를 분석했다.</t>
+          <t>방송통신위원회가 발표한 2024년도 앱 마켓 실태조사에서 삼성전자 갤럭시스토어의 매출이 증가한 것으로 나타났다.</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="L129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>엔비디아가 글로벌 반도체 시장에서 매출 1위를 차지하며 삼성전자는 2위를 유지했다.</t>
+          <t>삼성전자는 2023년 반도체 부문에서 2위를 유지하며 매출이 60.2% 증가했다.</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -8106,7 +8106,7 @@
         </is>
       </c>
       <c r="L130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>삼성전자 DX부문 노태문 직무대행이 조직 문화 혁신을 강조했다.</t>
+          <t>삼성전자 DX부문장 직무대행 노태문이 조직 문화 혁신과 유기적 협력을 강조하는 메시지를 전달했다.</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -8166,7 +8166,7 @@
         </is>
       </c>
       <c r="L131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>앱 마켓의 수수료와 불공정 사례에 대한 조사 결과가 발표되었습니다.</t>
+          <t>삼성전자 갤럭시스토어 등 국내 앱 마켓의 거래 규모와 수수료 비중에 대한 실태조사 결과가 발표되었습니다.</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="L132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -8277,12 +8277,12 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>삼성전자의 가정용 에어컨 판매량 증가에 관한 기사입니다.</t>
+          <t>삼성전자와 LG전자의 1분기 가정용 에어컨 판매량 증가에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L133" t="b">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>삼성전자 DX부문장 직무대행 노태문 사장이 조직 재정비를 강조하며 리더십 공백 우려를 해소하고자 함.</t>
+          <t>노태문 삼성전자 DX부문장 직무대행이 조직 문화 개선과 미래 경쟁력 확보를 강조했습니다.</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="L134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>삼성전자가 인텔을 제치고 반도체 매출 2위를 유지했다.</t>
+          <t>삼성전자가 인텔을 제치고 전 세계 반도체 매출 순위 2위를 유지했다.</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -8406,7 +8406,7 @@
         </is>
       </c>
       <c r="L135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>SK하이닉스가 TSMC와 협력하여 HBM4 개발을 추진하고 있다.</t>
+          <t>SK하이닉스가 TSMC와 협력하여 HBM4 개발 및 생산을 강화하고 있다.</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>앱 개발자들이 앱 내 결제의 과도한 수수료를 가장 큰 문제로 인식하고 있다는 조사 결과가 발표되었습니다.</t>
+          <t>앱 마켓 실태조사 결과, 과도한 수수료가 주요 문제로 지적됨.</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>방송통신위원회가 2024년도 앱 마켓 실태조사 결과를 발표하고 앱 내 결제의 과도한 수수료 문제를 지적했다.</t>
+          <t>방송통신위원회는 2024년도 앱 마켓 실태조사 결과를 발표하며 국내 앱 마켓 거래액 감소를 보고했다.</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -8637,7 +8637,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>엔비디아가 2024년 반도체 시장 매출 1위를 기록하며 GPU와 HBM 중심의 성장세를 보이고 있다.</t>
+          <t>엔비디아가 반도체 시장 1위로 부상하며 삼성전자는 2위로 하락하였다.</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="L139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>엔비디아가 삼성전자를 제치고 글로벌 반도체 매출 1위를 기록했다.</t>
+          <t>엔비디아가 글로벌 반도체 매출 1위에 올라 삼성전자는 2위를 차지했다.</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>앱 마켓 실태조사 결과 발표, 삼성 갤럭시스토어 매출 증가.</t>
+          <t>2024년도 앱 마켓 실태조사 결과에 따르면 삼성전자 갤럭시스토어는 매출이 증가했다.</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -8817,16 +8817,16 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>인도 정부의 전자폐기물 처리비용 최저가제 도입에 삼성전자가 난색을 보이고 있다.</t>
+          <t>인도 정부의 폐기비용 최저가제 도입으로 삼성전자 등 전자기업들이 비용 증가에 난색을 표하고 있다.</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="L142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>미국 반도체 주가 하락으로 삼성전자와 SK하이닉스 주가도 하락세를 보이고 있다.</t>
+          <t>미국 반도체 주가 변동에 따라 삼성전자 주가도 등락을 반복하고 있다.</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -8886,7 +8886,7 @@
         </is>
       </c>
       <c r="L143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>방송통신위원회와 한국인터넷진흥원이 앱 마켓의 불공정 사례와 문제점을 조사 발표했다.</t>
+          <t>방통위는 앱 마켓의 불공정 사례 개선을 위해 노력하겠다고 밝혔다.</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>SK하이닉스의 1분기 실적이 삼성전자를 제치고 호조를 보일 것으로 예상된다.</t>
+          <t>SK하이닉스가 삼성전자를 제치고 1분기 호실적을 기록할 것으로 예상된다.</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -9057,7 +9057,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>엔비디아가 AI 효과로 반도체 시장에서 삼성전자와 인텔을 제치고 1위에 올랐다.</t>
+          <t>엔비디아가 인텔과 삼성전자를 제치고 반도체 시장 매출 1위에 올랐다.</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -9117,7 +9117,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>트럼프 행정부가 엔비디아의 H20 칩 중국 수출 제한 계획을 철회하여 한국 반도체 기업에 영향.</t>
+          <t>삼성전자가 중국 사업 중단 소문을 부인하며 미중 갈등 속에서 입장을 밝혔습니다.</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -9126,7 +9126,7 @@
         </is>
       </c>
       <c r="L147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>LG전자가 건조 용량을 늘린 세탁건조기 신제품을 하반기 출시할 예정이다.</t>
+          <t>LG전자가 건조 용량을 늘린 세탁건조기 신제품을 출시하며 시장 경쟁이 치열해질 전망이다.</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -9237,16 +9237,16 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>삼성전자 DX 부문 노태문 사장이 조직 문화 개선과 미래 기술 확보를 강조했다.</t>
+          <t>노태문 삼성전자 DX부문장 직무대행이 유연하고 민첩한 조직 문화를 강조하며 미래 경쟁력 확보를 촉구했다.</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="L149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -9297,7 +9297,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>삼성전자가 AI 로봇 '볼리'에 구글 클라우드의 제미나이를 탑재하여 AI 기능을 강화한다.</t>
+          <t>삼성전자가 구글 클라우드와 협력해 AI 로봇 '볼리'를 출시한다.</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>앱 마켓 실태조사 결과, 인앱 결제 수수료와 심사 지연이 주요 문제로 지적됨.</t>
+          <t>2024년도 앱 마켓 실태조사 결과, 국내 앱 개발자들이 인앱 결제의 과도한 수수료를 주요 문제점으로 지적했다.</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>한화에어로스페이스 주가가 유상증자 우려 해소로 급등하며 증권사들의 긍정적 평가를 받았다.</t>
+          <t>한화에어로스페이스 주가가 유상증자 해소 후 급등하며 증권사들의 긍정적 평가를 받았다.</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>삼성전자 주가와 관련된 내용으로 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>삼성전자 등 주요 종목이 미중 무역전쟁 우려로 인해 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="L154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>반도체 업계가 정부에 지원을 촉구하며 중국과의 기술 격차를 벌리려는 전략을 논의 중이다.</t>
+          <t>반도체 업계가 중국의 기술 추월을 견제하기 위해 정부 지원을 촉구하며 삼성전자 등 대형 기업의 역할을 강조했다.</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -9606,7 +9606,7 @@
         </is>
       </c>
       <c r="L155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>삼성전자 주식 관련 기사로 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>삼성전자가 국내 증시에서 주가 하락세를 보이며 투자자들의 관심을 받고 있다.</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="L156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -9717,16 +9717,16 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>삼성전자 주가 관련 기사로 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>삼성전자와 SK하이닉스 주가가 미국 반도체주 하락 영향으로 변동성을 보이고 있다.</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -9777,7 +9777,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>국내 증시와 뉴욕 증시의 하락세에 대한 분석을 다룬 기사입니다.</t>
+          <t>삼성전자를 포함한 국내 증시 시총 상위 종목들이 미중 무역갈등 우려로 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -9786,7 +9786,7 @@
         </is>
       </c>
       <c r="L158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>코스피와 미국 증시의 하락세가 관세 불확실성에 영향을 받았다.</t>
+          <t>코스피가 미국 관세 불안으로 하락하며 삼성전자 등 주요 종목이 약세를 보였다.</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="L159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -9897,7 +9897,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>미·중 관세전쟁으로 인한 한국 증시의 변동 상황을 보도.</t>
+          <t>미중 관세전쟁 여파로 삼성전자 주가가 하락하며 코스피가 약세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="L160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>삼성전자가 음식물처리기 시장에 아직 본격적으로 진출하지 않고 있는 상황을 설명하는 기사입니다.</t>
+          <t>국내 음처기 시장이 급성장하고 있는 가운데, 삼성전자는 조심스러운 태도를 보이고 있다.</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -10017,7 +10017,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>미중 무역갈등으로 인한 국내 금융시장 변동성에 관한 기사입니다.</t>
+          <t>미중 무역갈등 격화로 국내외 증시가 하락세를 보이고 있습니다.</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -10077,7 +10077,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>삼성전자 주가 하락 등 주식시장 변동에 대한 내용입니다.</t>
+          <t>코스피와 코스닥 지수 변동 및 주요 업종 주가 변동에 대한 기사.</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>KG모빌리티가 토레스 하이브리드 론칭 기념 시승 이벤트를 진행하며 삼성전자 제품을 경품으로 제공한다.</t>
+          <t>KGM의 토레스 하이브리드 시승 이벤트에 대한 기사로 삼성전자와 직접적 연관은 없음.</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>삼성전자 주가 하락과 관련된 코스피 전반 상황을 다룬 기사입니다.</t>
+          <t>삼성전자 주가가 코스피 하락세에 따라 2.13% 하락했다.</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -10206,7 +10206,7 @@
         </is>
       </c>
       <c r="L165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -10257,7 +10257,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>공정위가 에듀윌과 에스티유니타스의 거짓·과장 광고에 과징금을 부과했다.</t>
+          <t>공정위가 에듀윌과 에스티유니타스의 과장 광고에 과징금을 부과했다.</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -10309,16 +10309,16 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>SK하이닉스가 D램 시장에서 삼성전자를 제치고 1위를 차지했다.</t>
+          <t>SK하이닉스가 D램 시장 점유율에서 삼성전자를 제치고 1위를 차지했다.</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="L167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -10369,12 +10369,12 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>이 기사는 TSMC와 반도체 산업에 대한 내용으로 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>책 소개 기사로, 삼성전자와 직접적인 연관이 없습니다.</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>False</t>
         </is>
       </c>
       <c r="L168" t="b">
@@ -10429,7 +10429,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>삼성전자 실적과 관련된 관세 정책의 불확실성에 대한 기사.</t>
+          <t>삼성전자의 1분기 실적이 관세 정책의 불확실성으로 인해 주가에 반영되지 않고 있다.</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -10438,7 +10438,7 @@
         </is>
       </c>
       <c r="L169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>양향자 전 의원의 국민의힘 입당과 대선 출마 결정에 관한 인터뷰 내용.</t>
+          <t>양향자 전 의원이 국민의힘 입당 후 대선 출마를 결심한 이유를 설명하며 삼성전자 임원 경력을 언급했다.</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -10549,16 +10549,16 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>미래에셋증권 투자자들의 최근 순매수 및 순매도 종목 동향을 소개하는 기사입니다.</t>
+          <t>SK하이닉스가 D램 시장 점유율에서 삼성전자를 처음으로 앞질렀다는 소식이 전해졌다.</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="L171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -10609,7 +10609,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>UNIST가 AI 스마트 캠퍼스를 운영하며 AI 교육과 연구를 강화하고 있다.</t>
+          <t>UNIST가 AI 스마트 캠퍼스를 운영하며 AI와 인간 창의력 융합 교육을 추진한다.</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 시장의 주가 변동과 외국인 매도세에 대한 기사입니다.</t>
+          <t>삼성전자 등 시가총액 상위주 주가가 하락하며 코스피 지수가 하락했다.</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -10678,7 +10678,7 @@
         </is>
       </c>
       <c r="L173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수의 하락과 조선주의 상승세에 대한 시장 동향을 다룬 기사입니다.</t>
+          <t>코스피와 코스닥 지수의 변동과 외국인 및 기관 매도세에 대한 시장 동향을 전하는 기사.</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -10789,7 +10789,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>삼성전자를 포함한 여러 기업의 실적과 법인세비용 변동에 관한 기사입니다.</t>
+          <t>삼성전자는 반도체 업황 회복과 AI 수요 증가로 매출과 영업이익이 큰 폭으로 개선되었습니다.</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -10798,7 +10798,7 @@
         </is>
       </c>
       <c r="L175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -10841,16 +10841,16 @@
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>삼성전자 관련 기사로 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>엔비디아가 삼성전자를 제치고 반도체 매출 1위에 올랐으며, 삼성전자는 2위를 유지했습니다.</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>삼성전자 평택캠퍼스 셧다운 해제가 평택 부동산 시장에 긍정적 영향을 미치고 있다.</t>
+          <t>삼성전자 평택캠퍼스 셧다운 해제와 투자 소식이 평택 부동산 시장 반등에 긍정적 영향을 미칠 것으로 보인다.</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -10910,7 +10910,7 @@
         </is>
       </c>
       <c r="L177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>코스피와 코스닥의 주가 변동과 관련된 내용.</t>
+          <t>삼성전자를 포함한 주요 대형주들이 하락하며 코스피가 하락 마감했다.</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -10970,7 +10970,7 @@
         </is>
       </c>
       <c r="L178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>해당 기사는 삼성전자와 관련된 주식 및 시가총액에 대한 내용으로, 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>삼성전자 관련된 직접적인 내용이 없는 기사입니다.</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>잇츠센서가 정부 지원을 받아 자율주행로봇 개발에 나선다.</t>
+          <t>잇츠센서가 정부 지원을 받아 자율주행로봇 개발을 추진 중이다.</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -11141,7 +11141,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수가 관세전쟁 영향으로 하락 출발했다.</t>
+          <t>미중 관세전쟁 격화로 코스피와 코스닥이 하락 출발했다는 내용의 기사입니다.</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>트럼프 대통령의 관세 정책이 한국 기업들에 미치는 영향에 대한 기사입니다.</t>
+          <t>삼성전자는 트럼프 대통령의 관세 유예 조치로 안도하며 비상체제를 유지 중이다.</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -11210,7 +11210,7 @@
         </is>
       </c>
       <c r="L182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>삼성전자 등 주요 기업의 주가 상승세를 보인 애프터마켓 상황을 리뷰한 기사입니다.</t>
+          <t>삼성전자와 SK하이닉스 등 국내 주요 반도체 주식이 글로벌 증시 변동성 속에서 급등세를 보였습니다.</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -11270,7 +11270,7 @@
         </is>
       </c>
       <c r="L183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -11313,12 +11313,12 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>국민연금의 보험료율 인상과 투자 전략 변화에 대한 기사입니다.</t>
+          <t>국민연금 보험료율 인상 및 투자 전략 변화로 기금 고갈 시점이 늦춰질 전망이다.</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="L184" t="b">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>엔비디아가 AI 시장 성장으로 세계 1위 반도체 기업으로 부상했다.</t>
+          <t>삼성전자가 2024년 반도체 매출 순위에서 2위를 유지하며 매출이 60.8% 증가했다.</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -11382,7 +11382,7 @@
         </is>
       </c>
       <c r="L185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -11433,7 +11433,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>삼성전자의 새로운 스틱형 청소기 '비스포크 AI 제트 400W'의 기능과 성능을 소개하는 기사입니다.</t>
+          <t>삼성전자의 새로운 스틱형 청소기 '비스포크 AI 제트 400W'의 성능과 특징을 소개하는 기사입니다.</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -11485,16 +11485,16 @@
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>삼성전자 평택캠퍼스 가동 소식으로 고덕신도시 부동산 시장이 활기를 띠고 있다.</t>
+          <t>삼성전자 평택캠퍼스의 가동률 상승 계획으로 고덕신도시 부동산 시장이 활기를 띠고 있다.</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="L187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>기사 내용은 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>뉴욕 증시 변동성과 미중 무역 갈등에 대한 전문가 분석을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -11605,16 +11605,16 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>해당 기사는 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>삼성전자가 평택캠퍼스 4라인에 D램과 파운드리 복합 구성을 추진하며 투자를 재개할 계획입니다.</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -11665,7 +11665,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>미중 무역 갈등으로 인해 코스피와 코스닥 지수가 하락세를 보이고 있다.</t>
+          <t>미·중 무역 갈등으로 코스피와 코스닥 지수가 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -11725,7 +11725,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>서울대 컴퓨터연구소가 AI와 컴퓨터 아키텍처 혁신을 연구하는 내용.</t>
+          <t>서울대 컴퓨터연구소가 AI와 컴퓨터 아키텍처 혁신을 연구하고 있다.</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>삼성전자가 구글 AI '제미나이'를 가정용 로봇 '볼리'에 탑재한다는 내용의 기사입니다.</t>
+          <t>삼성전자가 구글의 AI 기술을 가정용 로봇 볼리에 탑재한다는 내용의 기사.</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -11845,7 +11845,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>미국과 중국의 관세 전쟁 격화로 코스피와 코스닥 지수가 하락세를 보였다.</t>
+          <t>미중 관세 갈등으로 주식 시장 변동성이 커지며 주요 지수와 종목이 하락세를 보였다.</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -11905,7 +11905,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>잇츠센서가 자율주행로봇 기술로 정부 지원금을 확보하고 상용화를 추진 중이다.</t>
+          <t>DGIST 창업기업 잇츠센서가 정부 지원을 받아 자율주행로봇 개발에 나선다.</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>구글 클라우드 CEO가 보안 솔루션의 강점을 강조하며 한국 공공 분야 진출 계획을 발표했다.</t>
+          <t>구글 클라우드의 보안 강점과 한국 기업과의 협업 사례를 소개한 기사입니다.</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -12025,7 +12025,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>코스피와 코스닥의 주가 변동과 조선주 강세가 주요 내용이다.</t>
+          <t>코스피와 코스닥 지수의 변동 및 주요 기업 주가 동향을 전달하는 기사입니다.</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -12077,7 +12077,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>일본 기업 닛토덴코의 고용 승계 문제와 관련된 논란을 다룬 기사입니다.</t>
+          <t>일본 기업 닛토덴코의 고용 승계 문제와 외투 기업의 사회적 책임 부족을 지적하는 기사.</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>장제원 전 의원의 성폭력 사건과 관련된 피해자의 입장문이 공개되었습니다.</t>
+          <t>장제원 전 의원의 성폭력 사건과 관련된 피해자의 입장문과 사회적 반응을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>미중 관세 갈등으로 코스피와 코스닥 지수가 하락세를 보이고 있다.</t>
+          <t>미중 관세 갈등으로 코스피와 코스닥 지수가 등락을 보이며 시장 불확실성이 지속되고 있다.</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -12249,7 +12249,7 @@
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr">
         <is>
-          <t>정치적 불확실성 해소와 함께 부동산 시장의 규제 완화 기대감이 커지고 있다.</t>
+          <t>부동산 시장의 규제 완화와 삼성전자 평택캠퍼스 관련 소식이 평택 지역 부동산에 긍정적 영향을 미치고 있다.</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -12309,7 +12309,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>코스피 지수와 주요 기업 주가 하락에 대한 기사로, 삼성생명과 직접적인 연관은 없음.</t>
+          <t>코스피 지수 하락과 관련한 국내 증시 상황을 전하는 기사입니다.</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -12369,7 +12369,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>삼성전자 베트남 사업 관련 인사 이동과 관세 문제에 대한 대응을 다룬 기사.</t>
+          <t>삼성전자는 베트남에서의 관세 문제 해결을 위해 베트남 정부와의 협력을 강조하고 있다.</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -12378,7 +12378,7 @@
         </is>
       </c>
       <c r="L202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수 관련 시장 동향을 다룬 기사입니다.</t>
+          <t>삼성전자를 포함한 코스피 주요 기업들의 주가가 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -12489,7 +12489,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수의 변동 상황 및 외환 시장 동향을 전하는 기사입니다.</t>
+          <t>코스피와 코스닥의 변동 상황과 외국인의 매도세가 주요 내용인 기사입니다.</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -12549,7 +12549,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>외국인의 국내 증시 매수세가 관세 우려 완화와 환율 안정으로 긍정적 영향을 받았으나, 본격적인 유입은 어려울 전망이다.</t>
+          <t>외국인의 국내 증시 매수 전환과 관련된 기사로 삼성전자와 직접적 연관은 없음.</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -12609,7 +12609,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>네이버웹툰과 카카오프렌즈의 협업 소식으로 삼성 관련 내용은 없음.</t>
+          <t>네이버웹툰 '마루'와 카카오프렌즈 '춘식이'가 협업하여 IP 수익 모델을 확대한다.</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -12669,7 +12669,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>트럼프 대통령의 관세 유예로 금값과 주식시장이 반등했다는 내용의 기사입니다.</t>
+          <t>트럼프 대통령의 관세 유예로 금값과 주식시장이 반등했다는 내용을 전하는 기사.</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -12721,7 +12721,7 @@
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>기사는 미국과 중국의 관세 전쟁 및 경제적 대립에 대한 내용으로, 삼성 관련 내용은 포함되어 있지 않음.</t>
+          <t>삼성전자와 관련된 구체적인 내용 없이 미중 무역 전쟁 및 중국 경제에 대한 내용입니다.</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -12773,7 +12773,7 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>삼성전자가 인수한 레인보우로보틱스 등 로봇 기업들이 휴머노이드 AI 개발을 위해 협력한다.</t>
+          <t>삼성전자가 인수한 레인보우로보틱스 등이 참여한 휴머노이드 AI 공동 연구 MOU 체결.</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -12833,7 +12833,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>미중 관세전쟁으로 코스피와 코스닥 지수가 하락세를 보이며 외국인 순매도가 재개되었다.</t>
+          <t>미중 관세전쟁 격화로 인한 한국 증시 하락 소식.</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -12893,7 +12893,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>삼성전자 주가 하락과 코스피, 코스닥 시장 동향을 다룬 기사입니다.</t>
+          <t>코스피와 코스닥 지수의 변동 및 외국인 투자자의 순매도 재개 상황을 설명한 기사입니다.</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -12953,7 +12953,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>미중 관세전쟁 여파로 한국 증시가 약세를 보이고 있으며, 삼성전자 주가가 하락했다.</t>
+          <t>미중 관세전쟁 격화로 한국 증시가 약세를 보이며 삼성전자 등 주요 종목 하락.</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>트럼프 행정부의 관세정책이 증시 변동성에 영향을 미쳤다는 내용의 기사입니다.</t>
+          <t>미중 관세 전쟁 격화로 삼성전자 등 주가 하락, 시장 변동성 지속 우려.</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -13022,7 +13022,7 @@
         </is>
       </c>
       <c r="L213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -13073,7 +13073,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>미중 관세 전쟁으로 인한 증시 변동성을 다룬 기사입니다.</t>
+          <t>미국의 관세 정책으로 코스피가 변동성을 보이며 삼성전자 주가도 하락했다.</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="L214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -13133,7 +13133,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수가 급락세를 보이며 삼성전자를 포함한 주요 종목들이 하락했다.</t>
+          <t>코스피 지수 하락과 삼성전자 등 주요 종목의 주가 하락 소식.</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -13193,7 +13193,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>DGIST 창업기업 잇츠센서가 정부 지원 프로젝트에 선정되어 기술력을 인정받았다.</t>
+          <t>잇츠센서가 정부 지원 사업에 선정되어 고정밀 센서 기술을 상용화한다.</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -13245,7 +13245,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>반도체 업황과 관련된 내용으로, 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>삼성전자가 와이씨와 511억 원 규모의 공급계약을 체결하며 기술 경쟁력을 강화하고 있다.</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -13254,7 +13254,7 @@
         </is>
       </c>
       <c r="L217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -13305,7 +13305,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>삼성전자 등 시가총액 상위주의 주가 하락이 코스피 지수에 영향을 미쳤다.</t>
+          <t>미중 관세전쟁 여파로 코스피가 하락하며 삼성전자 등 주요 주가가 하락했다.</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -13365,7 +13365,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>삼성전자 주가 관련 내용으로 삼성생명과 직접적 연관이 없는 기사입니다.</t>
+          <t>주식 시장에서 삼성전자 등 주요 종목이 하락하며 코스피 지수가 하락 마감했다.</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -13374,7 +13374,7 @@
         </is>
       </c>
       <c r="L219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -13417,16 +13417,16 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>인도 정부의 전자제품 폐기 처리비용 최저가제 도입에 대해 삼성전자가 비용 증가를 우려하고 있다.</t>
+          <t>삼성전자가 인도 정부의 전자폐기물 처리비용 최저가제 도입에 따른 비용 증가에 우려를 표명했다.</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="L220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -13477,7 +13477,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>SK하이닉스가 HBM 개발 조직을 이원화하여 기술 리더십과 시장 점유율 확대를 노리고 있다.</t>
+          <t>SK하이닉스가 HBM 개발 조직을 이원화하여 맞춤형 및 범용 제품 대응을 강화하고 있다.</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -13537,7 +13537,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>잇츠센서가 정부 지원을 받아 자율주행 기술을 고도화하고 상용화에 나선다는 내용의 기사입니다.</t>
+          <t>잇츠센서가 정부 지원을 받아 자율주행 기술 개발과 사업화에 나선다.</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -13597,7 +13597,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>코스피와 코스닥의 주가 변동 상황과 관련된 기사입니다.</t>
+          <t>코스피가 관세 전쟁 우려로 하락했으나 조선주는 급등하며 국내 증시의 혼조세를 보였다.</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -13657,7 +13657,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>미중 관세 갈등으로 코스피 지수가 하락하며 삼성전자 등 주요 주식이 하락세를 보였다.</t>
+          <t>코스피 지수 하락과 조선주 강세에 대한 기사로 삼성전자와 직접적 연관은 없음.</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>삼성전자 주식 관련 내용으로 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>미중 관세 갈등으로 국내외 금융시장이 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -13777,7 +13777,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>미중 무역전쟁 심화로 인한 코스피와 코스닥 지수 하락 소식.</t>
+          <t>미중 무역전쟁 심화로 코스피와 삼성전자 등 주요 주가가 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -13786,7 +13786,7 @@
         </is>
       </c>
       <c r="L226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -13837,7 +13837,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수 변동과 관련된 시장 동향 기사.</t>
+          <t>코스피와 코스닥 지수의 변동 상황과 주요 기업들의 주가 변동을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -13897,7 +13897,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>용인 및 청주 지역의 아파트 분양 소식과 관련된 기사입니다.</t>
+          <t>청주와 용인 지역의 아파트 분양 소식과 인근 산업단지 정보.</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -13949,7 +13949,7 @@
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr">
         <is>
-          <t>김문수 전 고용노동부 장관의 대선 출마와 관련된 인터뷰 내용입니다.</t>
+          <t>김문수 전 고용노동부 장관의 대선 출마 선언과 관련된 인터뷰 내용.</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -14009,7 +14009,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>미중 관세전쟁으로 인해 코스피와 주요 주식들이 하락세를 보이고 있다.</t>
+          <t>미중 관세전쟁으로 코스피가 하락하며 삼성전자 주가도 하락세를 보였다.</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -14018,7 +14018,7 @@
         </is>
       </c>
       <c r="L230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>미·중 무역 갈등으로 코스피와 코스닥 지수가 하락하고 있다.</t>
+          <t>미중 무역 갈등으로 코스피와 코스닥 지수가 하락하고 있으며, 삼성전자도 약세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -14129,7 +14129,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수 변동에 관한 기사로, 삼성전자 주가 하락이 언급되었으나 관련성은 낮음.</t>
+          <t>코스피와 코스닥 지수가 외국인 투자자의 매도세와 개인 및 기관의 매수세에 따라 변동 중이다.</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -14189,7 +14189,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>전기 산업 발전 유공자 포상 관련 기사로, 삼성전자와의 직접적 관련성은 없다.</t>
+          <t>전기 산업 발전 유공자 23명이 포상을 받았으며, 김영달 대표가 금탑산업훈장을 수상하였다.</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -14249,7 +14249,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>미국과 중국 간의 관세 전쟁으로 글로벌 증시가 하락세를 보였다.</t>
+          <t>미중 관세 전쟁 여파로 삼성전자 등 아시아 증시가 하락세를 보였다.</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -14258,7 +14258,7 @@
         </is>
       </c>
       <c r="L234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -14309,7 +14309,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>국민연금의 국내주식 비중 확대와 수익률 개선에 대한 기사입니다.</t>
+          <t>국민연금이 1분기 국내주식 비중을 확대하며 수익률이 플러스로 전환되었다.</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -14369,7 +14369,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수가 각각 하락과 상승을 보이며 마감했다.</t>
+          <t>삼성전자 주가가 코스피 하락 속에 2.13% 하락 마감했다.</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -14378,7 +14378,7 @@
         </is>
       </c>
       <c r="L236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -14429,7 +14429,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>미중 무역 갈등과 관련하여 국내 증시가 변동성을 보였다는 내용의 기사입니다.</t>
+          <t>미중 관세전쟁 우려 속에서 국내 증시는 코스피 2400선을 유지하며 변동성을 보였다.</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -14489,7 +14489,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>증시 변동과 관련된 삼성전자 주식 하락에 대한 기사입니다.</t>
+          <t>미중 무역갈등으로 인한 증시 변동성 심화와 관련된 기사입니다.</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -14549,7 +14549,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>삼성전자 주가 하락 관련 기사로 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>삼성전자를 포함한 주요 코스피 종목들이 미중 무역 갈등으로 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -14558,7 +14558,7 @@
         </is>
       </c>
       <c r="L239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -14601,7 +14601,7 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>중소기업 수출 품목 변화와 K뷰티의 글로벌 시장 진출에 관한 기사입니다.</t>
+          <t>중소기업 수출 품목 변화와 K뷰티의 성장에 대한 기사.</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -14661,7 +14661,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>미국과 중국의 관세 갈등으로 증시 변동성이 커지고 있다.</t>
+          <t>미중 관세 갈등으로 증시 변동성이 커지고 삼성전자 등 주요 주가 하락세를 보였다.</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>미중 무역갈등으로 국내 증시와 환율이 요동치고 있다.</t>
+          <t>미중 무역갈등으로 국내 금융시장이 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수의 변동과 미국 관세 정책이 국내 증시에 미친 영향을 분석한 기사입니다.</t>
+          <t>미중 관세전쟁 속 코스피와 코스닥의 엇갈린 마감과 조선주 강세를 보도.</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>트럼프 행정부의 관세 정책 변화로 인해 한국 기업들이 불확실성에 직면하고 있다.</t>
+          <t>트럼프 행정부의 관세 정책 변화로 인해 한국 기업들이 경영 불확실성에 직면하고 있다.</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -14901,7 +14901,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>미중 무역갈등으로 국내 증시가 하락 출발했으나 오후 들어 일부 회복세를 보였다.</t>
+          <t>미중 무역갈등으로 코스피와 코스닥이 하락 출발했으나 코스닥은 오후에 상승 전환했습니다.</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -14961,7 +14961,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>양향자 전 의원의 국민의힘 입당과 대선 출마 관련 발언을 다룬 기사.</t>
+          <t>양향자 전 의원의 국민의힘 입당과 대선 출마 의지에 관한 기사입니다.</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -15013,7 +15013,7 @@
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr">
         <is>
-          <t>삼성전자의 엑시노스 2600 양산 소식이 포함된 기사입니다.</t>
+          <t>삼성전자가 엑시노스 2600을 올해 11월에 양산하며 2나노 기술을 선보일 예정입니다.</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -15022,7 +15022,7 @@
         </is>
       </c>
       <c r="L247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -15073,7 +15073,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수가 하락세로 출발하며 주요 종목들의 주가가 하락했다.</t>
+          <t>코스피와 코스닥 지수의 하락세를 보도하는 기사</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -15133,7 +15133,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>삼성전자 주식과 관련된 내용으로, 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>코스피와 코스닥의 주가 변동과 관련된 내용으로, 삼성전자와 관련된 직접적인 내용은 없습니다.</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -15193,7 +15193,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수의 하락 및 외환시장 동향에 관한 기사입니다.</t>
+          <t>코스피와 뉴욕증시 하락 관련 뉴스로 삼성전자 등 주요 종목이 약세를 보였다.</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -15245,7 +15245,7 @@
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr">
         <is>
-          <t>윤석열 전 대통령의 퇴거와 관련된 정치적 논의 및 여론조사 결과에 대한 기사입니다.</t>
+          <t>윤석열 전 대통령의 퇴거 및 정치적 행보에 대한 논의와 이재명 전 대표의 비전 발표에 대한 분석을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -15305,7 +15305,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수가 등락을 거듭하며 혼조세를 보이고 있다.</t>
+          <t>코스피 지수가 관세 갈등으로 하락세를 보이며 삼성전자 등 주요 종목도 약세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -15365,7 +15365,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수 변동 및 외환시장 동향을 전하는 기사입니다.</t>
+          <t>코스피와 코스닥 지수 변동과 관련된 시장 동향을 전달하는 기사입니다.</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -15425,7 +15425,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>엠케이전자가 SOCAMM용 본딩와이어를 개발 중이라는 소식.</t>
+          <t>엠케이전자가 SOCAMM용 본딩와이어 개발 중이며, 삼성전자와의 협력도 언급됨.</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -15537,7 +15537,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>삼성전자 주가 하락 등 국내 증시 변동성에 대한 기사로 삼성생명과 직접 관련 없음.</t>
+          <t>미중 관세전쟁 영향으로 삼성전자 등 주요 종목이 하락하며 코스피가 하락 마감했다.</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="L256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -15597,7 +15597,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>트럼프 대통령의 상호관세 유예 소식으로 투자심리가 회복되어 넥스트레이드 프리마켓 거래대금이 사상 최고치를 기록했다.</t>
+          <t>트럼프 대통령의 관세 유예 소식에 반도체주 강세로 프리마켓 거래대금이 사상 최고치를 기록.</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -15657,7 +15657,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>코스피와 코스닥의 주식 시장 동향에 대한 기사로, 삼성전자 관련 내용은 주가 하락에 대한 언급뿐이다.</t>
+          <t>코스피와 코스닥의 상승 및 하락 요인과 시가총액 상위 종목의 변동에 대한 기사.</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -15717,7 +15717,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>트럼프 대통령의 관세 발표로 인해 국내 증시가 하락했다.</t>
+          <t>미중 무역 갈등 심화로 삼성전자 등 주요 종목 주가가 하락세를 보였다.</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -15726,7 +15726,7 @@
         </is>
       </c>
       <c r="L259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>미중 무역전쟁과 관련된 관세 정책에 대한 분석 기사입니다.</t>
+          <t>미중 무역전쟁과 관련한 관세 정책의 변화와 그 영향에 대한 분석 기사입니다.</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -15837,7 +15837,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>국내 증시가 급등하며 코스피와 코스닥 지수가 상승했으나 관세 이슈로 변동성은 여전하다.</t>
+          <t>국내 증시가 급등하며 코스피와 코스닥의 매수 사이드카가 발동되었으나 관세 리스크로 변동성 주의 필요.</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -15897,7 +15897,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>코스피와 코스닥 지수 변동 및 미국 증시 하락에 대한 보도입니다.</t>
+          <t>미중 관세전쟁 격화로 삼성전자 등 반도체주가 하락하며 코스피와 코스닥이 하락 출발했습니다.</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="L262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -15957,7 +15957,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>국내 증시가 미국의 상호관세 유예 소식에 급등세를 보이며 마감했다.</t>
+          <t>국내 증시가 미국 상호관세 유예 소식에 급등, 삼성전자와 SK하이닉스 주가 상승.</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -16017,7 +16017,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>삼성전자 주식 하락과 관련된 기사로 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>미중 무역갈등 우려로 국내 증시 하락, 삼성전자 등 주요 주식 하락.</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -16077,7 +16077,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>국내 증시가 미·중 무역갈등으로 하락 출발했다는 개장 시황 기사입니다.</t>
+          <t>미중 무역갈등으로 인해 국내 증시가 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -16129,7 +16129,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>이 기사는 삼성전자와 관련된 내용이 아니며, 주로 원자재 시장과 트럼프 대통령의 관세 정책에 대한 내용을 다루고 있습니다.</t>
+          <t>이 기사는 삼성전자와 직접적인 연관이 없는 원자재 및 금 시장 동향에 관한 내용입니다.</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -16181,7 +16181,7 @@
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr">
         <is>
-          <t>삼성전자 관련 주식 시장 동향과 외국인 투자자들의 매수세에 관한 기사입니다.</t>
+          <t>국내 증시와 환율 변동성에 대한 분석 기사로, 삼성전자 관련 내용은 부수적입니다.</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -16233,7 +16233,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>미중 무역 갈등으로 인한 주식 시장 변동에 대한 기사입니다.</t>
+          <t>미중 무역 갈등으로 인한 주식 시장 변동에 대한 브리핑입니다.</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -16293,16 +16293,16 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>미국과 중국의 관세 전쟁으로 인한 국내 증시 변동성 확대를 다룬 기사입니다.</t>
+          <t>미중 관세 전쟁으로 인해 삼성전자를 포함한 국내 증시가 하락세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="L269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -16353,7 +16353,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>삼성전자 주가 상승 관련 기사로, 삼성생명과 직접적 연관이 없습니다.</t>
+          <t>미국 관세 유예로 강원지역 상장기업 주가 상승</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -16413,7 +16413,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>삼성물산의 1분기 영업이익과 매출이 전년 대비 감소할 것으로 예상됩니다.</t>
+          <t>삼성물산은 건설경기 침체로 인해 1분기 실적이 전년 대비 감소할 것으로 예상된다.</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -16473,7 +16473,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>삼성물산 리조트 부문이 용산정비창 전면1구역 재개발 프로젝트의 조경 계획에 참여합니다.</t>
+          <t>삼성물산 리조트 부문이 용산정비창 전면1구역 재개발 사업의 조경 계획에 참여합니다.</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -16533,7 +16533,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>HDC현대산업개발과 포스코이앤씨가 용산정비창 전면1구역 재개발 사업 수주 경쟁을 벌이고 있다.</t>
+          <t>HDC현대산업개발과 포스코이앤씨가 용산정비창 전면1구역 재개발 수주 경쟁을 벌이고 있다.</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -16593,7 +16593,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>문래동4가 재개발 사업에 삼성물산 등 대형 건설사들이 참여를 검토 중이다.</t>
+          <t>삼성물산 등 대형 건설사들이 문래동4가 재개발 사업 참여를 검토 중이다.</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -16602,7 +16602,7 @@
         </is>
       </c>
       <c r="L274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -16653,7 +16653,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>한국도로공사의 해외 도로 사업 수주와 관련된 내용으로 삼성물산과의 협력도 언급된다.</t>
+          <t>삼성물산이 한국도로공사와 함께 튀르키예 고속도로 운영 유지관리 사업에 참여하고 있다.</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -16662,7 +16662,7 @@
         </is>
       </c>
       <c r="L275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -16713,7 +16713,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>용인 푸르지오 원클러스터 2·3단지의 금융 혜택과 입지 조건에 대한 설명.</t>
+          <t>용인 푸르지오 원클러스터 2·3단지의 금융혜택과 입지 조건이 소개됨.</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -16773,7 +16773,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>삼성물산이 포함된 한국 원전 사업팀이 베트남 원전시장 진출을 위한 사업설명회를 개최했다.</t>
+          <t>삼성물산이 참여한 한국 원전 사업팀이 베트남 원전시장 진출을 위한 사업설명회를 개최했다.</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -16825,7 +16825,7 @@
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr">
         <is>
-          <t>부산시와 금융위가 금융·복지 복합지원 강화를 위한 협업체계를 구축했다.</t>
+          <t>부산시가 금융위원회와 협약을 통해 금융·복지 복합지원 체계를 구축한다.</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -16885,7 +16885,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>금융위원회가 부산시와 금융·복지 복합지원 서비스 업무협약을 체결했다.</t>
+          <t>금융위원회와 부산시가 금융·복지 복합지원 서비스 업무협약을 체결했다.</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -16945,7 +16945,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>우리금융그룹이 핀테크 기업의 글로벌 진출 지원을 위한 네트워킹 행사를 개최했다.</t>
+          <t>우리금융그룹이 핀테크 기업의 해외 진출 지원을 위한 네트워킹 행사를 개최했다.</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>우리금융그룹과 금융위원회가 핀테크 기업의 해외 진출 지원을 위한 네트워킹 행사를 개최했다.</t>
+          <t>우리금융그룹이 핀테크 기업의 해외 진출을 지원하기 위해 금융위와 공동으로 네트워킹 행사를 개최했다.</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -17065,7 +17065,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>우리금융지주의 동양·ABL생명보험 인수에 대한 금융위의 승인 논의가 연기되었다.</t>
+          <t>금융위가 우리금융의 동양·ABL생명보험 인수 승인 여부를 연기하며 내부통제 개선을 검토 중이다.</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -17185,7 +17185,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>정부와 서울시가 부동산 시장 안정화 방안을 논의하며 시장 교란 행위에 대한 점검을 강화하기로 했다.</t>
+          <t>정부와 서울시가 부동산 시장 안정화를 위한 다양한 조치를 논의하고 있다.</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -17245,7 +17245,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>금감원과 예보가 비대면 거래에 대한 금융 리스크를 점검하기 위해 공동검사를 추진한다.</t>
+          <t>금감원과 예금보험공사가 비대면 거래의 금융리스크를 점검하기 위해 공동검사를 추진한다.</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -17305,7 +17305,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>금융감독원이 신규 외부감사 대상 회사의 감사인 선임 제도를 안내하기 위해 온라인 설명회를 개최한다.</t>
+          <t>금감원이 신규 외부감사 대상 회사의 감사인 선임 제도를 안내하기 위해 온라인 설명회를 개최한다.</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -17365,7 +17365,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>금융감독원이 캡티브 영업 관행에 대해 삼성증권 등 증권사를 현장 검사한다.</t>
+          <t>금감원이 캡티브 영업 관행에 대해 삼성증권과 미래에셋증권을 대상으로 현장 검사를 실시한다.</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -17425,7 +17425,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>이복현 금융감독원장의 사퇴 소동과 관련된 정치적 발언에 대한 논란을 다룬 기사입니다.</t>
+          <t>이복현 금융감독원장의 사퇴 소동과 관련된 정치적 발언 및 논란을 다루고 있다.</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -17485,7 +17485,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>다이닝브랜즈그룹㈜의 지난해 영업이익이 11% 증가했다.</t>
+          <t>다이닝브랜즈그룹의 2023년 영업이익은 11% 증가했으며, 매출은 4% 감소했다.</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -17545,7 +17545,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>MBK파트너스와 김병주 회장이 홈플러스 사태로 금융당국과 국회의 압박을 받고 있다.</t>
+          <t>금감원이 MBK파트너스와 김병주 회장에 대한 징계 계획을 밝히며 국회와의 긴장감이 고조되고 있다.</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -17605,7 +17605,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>금감원이 한화에어로스페이스의 유상증자와 관련하여 정정 요구 및 승계 논란에 대해 경고했다.</t>
+          <t>금감원이 한화에어로스페이스의 증자 및 지분 매입에 대한 정정 요구와 관련한 논란을 다룸.</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -17665,7 +17665,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>금감원장 등이 참석한 F4 회의에서 가계부채 안정 관리 성과를 논의했다.</t>
+          <t>기획재정부 주관 회의에서 가계부채 관리 성과와 경제 리스크 대응 방안이 논의됨.</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -17717,7 +17717,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>거시경제·금융현안 간담회에 주요 금융 인사들이 참석했다.</t>
+          <t>금감원장 등 주요 인사들이 참석한 거시경제·금융현안 간담회가 열렸다.</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -17769,7 +17769,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>금감원 관련 회의에 대한 정보 전달 기사.</t>
+          <t>금감원장과 부총리 등 경제 관련 인사들이 거시경제·금융현안 간담회에 참석했다.</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -17829,7 +17829,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>지씨지놈이 금감원에 증권신고서를 제출하고 상장 절차에 착수했다.</t>
+          <t>지씨지놈이 금감원에 증권신고서를 제출하고 상장을 준비 중이다.</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -17889,7 +17889,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>한국투자증권과 신한투자증권의 회계 오류에 대해 금감원이 심사에 착수한 내용을 다루고 있습니다.</t>
+          <t>금감원이 한국투자증권과 신한투자증권의 회계 오류에 대해 심사에 착수했다.</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -17949,7 +17949,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>홈플러스와 MBK 관련 사기 및 자본시장법 위반 혐의로 고소된 사건에 대한 내용입니다.</t>
+          <t>홈플러스 사태 관련 MBK와 홈플러스 경영진이 사기 혐의로 고소된 사건을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -18009,7 +18009,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>정부가 서울 강남3구와 용산구의 집값 상승세 둔화를 평가하고 규제 조치를 예고했다.</t>
+          <t>정부가 서울 주요 지역의 부동산 시장 동향을 점검하고 규제 조치를 예고했다.</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -18069,7 +18069,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>이재명 전 대표의 정치 행보와 관련된 비판 내용으로 삼성생명과 직접적인 연관이 없습니다.</t>
+          <t>정치적 발언과 경제 리스크에 대한 논쟁을 다룬 기사로, 삼성생명과 직접적인 관련은 없음.</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -18129,7 +18129,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>대형 로펌 직원들의 주식 정보 사전 입수 및 부당이득 혐의에 대한 검찰 수사 소식.</t>
+          <t>대형 로펌 직원들이 주식 정보를 미리 알고 이익을 올린 혐의로 검찰 수사를 받고 있다.</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -18189,7 +18189,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>금융 당국 청문회와 관련된 정치적 발언을 다루고 있는 기사입니다.</t>
+          <t>경제부총리 탄핵소추와 금융 당국 청문회 관련 정치적 논란을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -18249,7 +18249,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>이 기사는 M&amp;A 시장과 사모펀드 관련 금융당국의 규제 강화에 대한 내용을 다루고 있습니다.</t>
+          <t>금융당국의 규제 강화로 M&amp;A 시장 내 사모펀드의 역할과 전략이 주목받고 있다.</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -18301,7 +18301,7 @@
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr">
         <is>
-          <t>기사의 내용은 삼성생명과 직접적인 관련이 없습니다.</t>
+          <t>빗썸의 도덕적 해이 논란과 금감원의 조사 소식을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -18361,7 +18361,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>금융감독원의 부동산 PF 부실 증가와 관련된 금융권 위험 부담 증가 기사.</t>
+          <t>부동산 PF 부실화로 금융권과 건설업계의 어려움이 커지고 있다는 내용의 기사입니다.</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -18421,7 +18421,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>김병환 금융위원장이 벤처금융 문제 해결을 위해 미국을 방문한다.</t>
+          <t>김병환 금융위원장이 벤처금융 문제 해결을 위해 미국 출장에 나선다.</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -18481,7 +18481,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>김병환 금융위원장과 박형준 부산시장이 금융·복지 복합지원 업무협약을 체결했다.</t>
+          <t>금융위원회와 부산시가 금융·복지 복합지원을 위한 업무협약을 체결했다.</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -18541,7 +18541,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>최상목 부총리와 관계기관이 시장 상황과 가계부채 관리에 대한 대응을 논의했다.</t>
+          <t>최상목 부총리가 경제 불확실성에 대한 대응을 강조하며 가계부채 관리의 중요성을 언급했다.</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -18601,7 +18601,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>기사 내용은 금융 관련 인물 간담회에 대한 내용으로, 삼성생명과 직접적인 관련이 없습니다.</t>
+          <t>거시경제·금융현안 간담회에서 주요 인사들이 참석한 기념촬영 소식.</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -18661,7 +18661,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>이재명 전 대표와 관련된 정치적 비판 기사로 삼성생명과는 관련이 없습니다.</t>
+          <t>권성동 국민의힘 원내대표가 이재명 전 대표의 'K민주주의' 비전을 강도 높게 비판했다.</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>금융당국과 은행들이 취약기업에 대한 금융지원을 확대하고 건전성 관리를 병행하려는 노력을 보고했다.</t>
+          <t>금융당국과 은행권이 미국 관세 충격에 대응해 기업 금융지원을 확대하고 건전성 관리를 병행한다.</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -18781,7 +18781,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>기사는 최상목 부총리의 경제 현안 대응 방안을 다루고 있습니다.</t>
+          <t>최상목 부총리가 거시경제 및 금융현안을 논의하며 수출기업 지원 방안을 발표했다.</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -18841,7 +18841,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>거시경제·금융현안 간담회에서 국가 총부채 비율 감소와 경제 지속가능성 강조.</t>
+          <t>거시경제·금융현안 간담회에서 가계부채 안정적 관리 성과와 시장 모니터링 강화 필요성이 논의됨.</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -18901,7 +18901,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>최상목 경제부총리가 금융시장 모니터링 강화를 지시했다.</t>
+          <t>최상목 부총리가 금융시장 모니터링 강화를 지시하며 경제 상황을 점검했다.</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -18961,7 +18961,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>이복현 금융감독원장이 자산운용업계의 보수 인하 경쟁에 경고를 보냈다.</t>
+          <t>이복현 금감원장이 자산운용업계의 보수 인하 경쟁에 경고를 보냈다는 내용의 기사입니다.</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -19021,7 +19021,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>이복현 금감원장이 MBK파트너스 관련 홈플러스 신용등급 강등 사전 인지 정황을 확인하고 신속한 조치를 예고했다.</t>
+          <t>이복현 금감원장이 MBK의 홈플러스 신용등급 강등 사전 인지 정황을 조사 중이라고 밝혔습니다.</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -19081,7 +19081,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>이복현 금융감독원장이 상법 재의요구 절차 미루는 것은 헌법 취지에 어긋난다고 발언.</t>
+          <t>이복현 금융감독원장이 상법 재의요구 절차 지연을 비판했다.</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -19141,7 +19141,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>이복현 금융감독원장이 상법 재의요구안 표결 지연에 대한 민주당의 태도를 비판했다.</t>
+          <t>이복현 금융감독원장이 상법 재의요구안 미표결에 대한 비판을 제기했다.</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -19201,7 +19201,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>한화에어로스페이스의 유상증자 관련 주가 변동과 금융감독원의 입장 발표.</t>
+          <t>한화에어로스페이스가 유상증자 논란 수습 후 주가 상승세를 보이고 있다.</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -19261,7 +19261,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>가전 구독 서비스가 사기 범죄에 악용되는 사례와 금융 당국의 대응 방안을 다룬 기사.</t>
+          <t>이복현 금융감독원장이 불법 사금융 문제 해결에 관심을 갖고 있다는 내용이 포함된 기사입니다.</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -19270,7 +19270,7 @@
         </is>
       </c>
       <c r="L319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -19381,7 +19381,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>이 기사는 윤석열 대통령의 인사 정책에 대한 내용으로, 삼성생명과 관련이 없습니다.</t>
+          <t>윤석열 정부의 인사 정책과 관련된 다양한 인물들의 배경과 역할을 설명한 기사.</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -19441,7 +19441,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>금융위가 RWA 제도 개선을 통해 중소형 PEF 및 미들마켓 인수금융 활성화를 기대하고 있다.</t>
+          <t>금융당국이 RWA 제도 개선을 통해 투자은행의 자본비율 규제를 완화할 것으로 기대된다.</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -19501,7 +19501,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>5대 금융지주가 올해 1분기 준수한 실적을 예상하지만 금융시장 불확실성으로 자산 건전성 우려가 존재한다.</t>
+          <t>5대 금융지주가 1분기 준수한 실적을 예상하지만 금융시장 불확실성으로 인해 자산 건전성에 우려가 있다.</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -19561,7 +19561,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>iM금융그룹이 가수 싸이를 모델로 한 새 광고를 통해 디지털 전환과 혁신을 강조했다.</t>
+          <t>iM금융그룹이 가수 싸이를 모델로 한 새로운 광고를 공개하며 디지털 전환과 혁신을 강조했다.</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -19621,7 +19621,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>증권사들의 1분기 실적 전망과 관련된 기사로, 삼성생명과 직접적인 연관은 없습니다.</t>
+          <t>증권사들의 1분기 실적 전망과 관련한 분석 기사로, 삼성생명과 직접적인 연관은 없음.</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>NH농협금융지주가 윤리·준법 경영 강화를 위한 교육을 실시하고 있다.</t>
+          <t>NH농협금융지주 회장이 내부통제와 윤리 경영의 중요성을 강조하며 금융사고 예방을 위한 교육을 실시한다.</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -19741,7 +19741,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>국민연금이 1분기 국내 주식시장에서 투자 종목을 확대하며 매수세를 강화했다.</t>
+          <t>국민연금이 1분기 국내 주식시장에서 석유화학, 여행, 화장품, 금융지주 등 종목에 대한 투자 비중을 늘렸다.</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -19801,7 +19801,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>미국과 중국의 관세 전쟁으로 인해 코스피와 코스닥 시장이 변동을 겪었다.</t>
+          <t>미중 관세 전쟁 여파로 코스피 하락, 코스닥은 의약품 수출 호조로 상승.</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -19861,7 +19861,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>은행권이 비금융 서비스 진입 규제 완화를 정치권에 요청했다.</t>
+          <t>은행권이 비금융 서비스 진출 규제 완화를 정치권에 요청했다.</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -19921,7 +19921,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>김연경의 은퇴와 금융지주 CEO들의 연임 문제를 다룬 기사입니다.</t>
+          <t>김연경의 은퇴와 관련된 스포츠 기사로, 금융지주와 직접적인 연관은 없습니다.</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>KB금융지주가 실적 발표 앞두고 주주와의 소통 강화를 위해 카카오톡 채널을 통한 사전 질문을 받는다.</t>
+          <t>KB금융이 실적 발표를 앞두고 주주 소통 강화를 위해 카카오톡 채널을 통한 사전 질문을 받는다.</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -20041,12 +20041,12 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>한국투자증권의 뱅키스 중개형 ISA 이벤트 관련 기사입니다.</t>
+          <t>한국투자증권이 뱅키스 중개형 ISA 이벤트를 통해 다양한 혜택을 제공한다.</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L332" t="b">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>카카오뱅크의 태국 디지털은행 진출 계획과 관련된 내용입니다.</t>
+          <t>카카오뱅크가 태국 디지털은행 진출을 위해 현지 인력을 채용하고 있다.</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -20161,7 +20161,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>메리츠증권이 기업금융 강화와 IPO 분야 확장을 위해 핵심 인력을 영입했다.</t>
+          <t>메리츠증권이 전통 IB 강화와 IPO 분야 진출을 위해 핵심 인력을 영입하고 사업 다각화를 추진하고 있다.</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -20221,7 +20221,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>우리은행의 알뜰폰 서비스 시작과 관련된 기사로 삼성생명과 직접적 연관은 없습니다.</t>
+          <t>우리은행이 알뜰폰 서비스 '우리WON모바일'을 시작하며 비이자이익 확대를 시도한다.</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -20281,12 +20281,12 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>유경PSG자산운용의 김홍범 CIO가 한국 증시와 투자 전략에 대해 논의한 기사입니다.</t>
+          <t>김홍범 유경PSG운용 CIO가 한국 증시의 변화와 투자 전략을 논의하였다.</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L336" t="b">
@@ -20341,7 +20341,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>고려아연의 주식 매각과 관련된 여러 기업의 지분 변동 사항을 다룬 기사입니다.</t>
+          <t>한국투자증권과 한국타이어 등이 고려아연 지분을 처분하며 지분 관계를 정리했다.</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -20393,12 +20393,12 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr">
         <is>
-          <t>이 기사는 삼성생명과 관련이 없으며, 금융지주에 대한 직접적인 언급도 없습니다.</t>
+          <t>국내외 증시 변동성과 관련된 시장 분석 및 투자 전략에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="L338" t="b">
@@ -20453,7 +20453,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>우리금융지주의 보험사 인수 관련 금융위 결정이 지연되고 있다.</t>
+          <t>우리금융의 동양·ABL생명 인수가 금융위원회의 결정을 기다리고 있는 상황이다.</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -20505,7 +20505,7 @@
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr">
         <is>
-          <t>JB금융지주가 AI 기술 활용을 위한 공동 AI 거버넌스를 BNK·iM금융지주와 추진한다.</t>
+          <t>JB금융지주가 AI 기술 활용을 위한 공동 AI 거버넌스를 추진한다.</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
